--- a/capiq_data/in_process_data/IQ25941.xlsx
+++ b/capiq_data/in_process_data/IQ25941.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B907F2-CB76-4DA9-84FF-697973F7C48B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E50CB6-4256-41A5-8EDC-00CEC55BF361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"10db84df-259d-4e37-902f-107fea5c6fa4"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e0bda943-7744-467b-a716-d735523899ca"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40544</v>
+        <v>36890</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-37.036999999999999</v>
+        <v>42.488999999999997</v>
       </c>
       <c r="D2">
-        <v>249.018</v>
+        <v>390.91399999999999</v>
       </c>
       <c r="E2">
-        <v>191.893</v>
+        <v>289.46800000000002</v>
       </c>
       <c r="F2">
-        <v>210.16900000000001</v>
+        <v>286.39699999999999</v>
       </c>
       <c r="G2">
-        <v>879.40599999999995</v>
+        <v>556.84799999999996</v>
       </c>
       <c r="H2">
-        <v>1732.116</v>
+        <v>1477.3209999999999</v>
       </c>
       <c r="I2">
-        <v>5.8129999999999997</v>
+        <v>35.323999999999998</v>
       </c>
       <c r="J2">
-        <v>406.404</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>697.548</v>
+        <v>491.57400000000001</v>
       </c>
       <c r="O2">
-        <v>1455.462</v>
+        <v>556.24400000000003</v>
       </c>
       <c r="P2">
-        <v>549.66200000000003</v>
+        <v>5.51</v>
       </c>
       <c r="Q2">
-        <v>48.374000000000002</v>
+        <v>-36.97</v>
       </c>
       <c r="R2">
-        <v>40544</v>
+        <v>36890</v>
       </c>
       <c r="S2">
-        <v>4600</v>
+        <v>5650</v>
       </c>
       <c r="T2">
-        <v>276.654</v>
+        <v>921.077</v>
       </c>
       <c r="U2">
-        <v>557.40899999999999</v>
+        <v>85.22</v>
       </c>
       <c r="V2">
-        <v>57.014000000000003</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-7.8209999999999997</v>
+        <v>46.152000000000001</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>3.298</v>
       </c>
       <c r="Z2">
-        <v>0.317</v>
+        <v>-44.170999999999999</v>
       </c>
       <c r="AA2">
-        <v>-37.036999999999999</v>
+        <v>42.488999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>6.3230000000000004</v>
+        <v>3.8220000000000001</v>
       </c>
       <c r="D3">
-        <v>266.10199999999998</v>
+        <v>344.65699999999998</v>
       </c>
       <c r="E3">
-        <v>172.54300000000001</v>
+        <v>254.214</v>
       </c>
       <c r="F3">
-        <v>220.935</v>
+        <v>252.32</v>
       </c>
       <c r="G3">
-        <v>922.63800000000003</v>
+        <v>503.55</v>
       </c>
       <c r="H3">
-        <v>1815.704</v>
+        <v>1494.7270000000001</v>
       </c>
       <c r="I3">
-        <v>185.148</v>
+        <v>217.09</v>
       </c>
       <c r="J3">
-        <v>411.19799999999998</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-2.8290000000000002</v>
+        <v>-86.204999999999998</v>
       </c>
       <c r="N3">
-        <v>673.66200000000003</v>
+        <v>440.48</v>
       </c>
       <c r="O3">
-        <v>1517.998</v>
+        <v>502.06900000000002</v>
       </c>
       <c r="P3">
-        <v>556.197</v>
+        <v>4.7069999999999999</v>
       </c>
       <c r="Q3">
-        <v>54.798999999999999</v>
+        <v>15.398999999999999</v>
       </c>
       <c r="R3">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>297.70600000000002</v>
+        <v>992.65800000000002</v>
       </c>
       <c r="U3">
-        <v>612.20799999999997</v>
+        <v>100.619</v>
       </c>
       <c r="V3">
-        <v>56.365000000000002</v>
+        <v>36.433</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>3.3740000000000001</v>
+        <v>-12.228</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="Z3">
-        <v>3.5659999999999998</v>
+        <v>32.283000000000001</v>
       </c>
       <c r="AA3">
-        <v>6.3230000000000004</v>
+        <v>3.8220000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>26.908000000000001</v>
+        <v>-28.888999999999999</v>
       </c>
       <c r="D4">
-        <v>283.27</v>
+        <v>347.57499999999999</v>
       </c>
       <c r="E4">
-        <v>150.24100000000001</v>
+        <v>249.077</v>
       </c>
       <c r="F4">
-        <v>231.864</v>
+        <v>255.27600000000001</v>
       </c>
       <c r="G4">
-        <v>1165.2550000000001</v>
+        <v>538.41099999999994</v>
       </c>
       <c r="H4">
-        <v>1874.625</v>
+        <v>1480.0719999999999</v>
       </c>
       <c r="I4">
-        <v>145.49799999999999</v>
+        <v>243.82599999999999</v>
       </c>
       <c r="J4">
-        <v>128.928</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1184.402</v>
+        <v>478.70100000000002</v>
       </c>
       <c r="O4">
-        <v>1543.309</v>
+        <v>540.952</v>
       </c>
       <c r="P4">
-        <v>562.78499999999997</v>
+        <v>4.0140000000000002</v>
       </c>
       <c r="Q4">
-        <v>53.109000000000002</v>
+        <v>29.417999999999999</v>
       </c>
       <c r="R4">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>331.31599999999997</v>
+        <v>939.12</v>
       </c>
       <c r="U4">
-        <v>665.31700000000001</v>
+        <v>130.03700000000001</v>
       </c>
       <c r="V4">
-        <v>69.412999999999997</v>
+        <v>40.274000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-2.323</v>
+        <v>35.962000000000003</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="Z4">
-        <v>8.1989999999999998</v>
+        <v>8.3490000000000002</v>
       </c>
       <c r="AA4">
-        <v>26.908000000000001</v>
+        <v>-28.888999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>28.106000000000002</v>
+        <v>127.425</v>
       </c>
       <c r="D5">
-        <v>292.45699999999999</v>
+        <v>360.00799999999998</v>
       </c>
       <c r="E5">
-        <v>152.43299999999999</v>
+        <v>262.202</v>
       </c>
       <c r="F5">
-        <v>242.63900000000001</v>
+        <v>262.47800000000001</v>
       </c>
       <c r="G5">
-        <v>958.45899999999995</v>
+        <v>512.58399999999995</v>
       </c>
       <c r="H5">
-        <v>1860.6769999999999</v>
+        <v>1509.0619999999999</v>
       </c>
       <c r="I5">
-        <v>139.26</v>
+        <v>227.495</v>
       </c>
       <c r="J5">
-        <v>420.98200000000003</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>649.53200000000004</v>
+        <v>480.06099999999998</v>
       </c>
       <c r="O5">
-        <v>1484.0809999999999</v>
+        <v>544.47699999999998</v>
       </c>
       <c r="P5">
-        <v>569.51199999999994</v>
+        <v>3.3359999999999999</v>
       </c>
       <c r="Q5">
-        <v>30.783999999999999</v>
+        <v>25.827000000000002</v>
       </c>
       <c r="R5">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>376.596</v>
+        <v>964.58500000000004</v>
       </c>
       <c r="U5">
-        <v>696.101</v>
+        <v>155.864</v>
       </c>
       <c r="V5">
-        <v>52.427</v>
+        <v>314.36599999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>6.085</v>
+        <v>-220.45699999999999</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z5">
-        <v>2.0390000000000001</v>
+        <v>-16.867999999999999</v>
       </c>
       <c r="AA5">
-        <v>28.106000000000002</v>
+        <v>127.425</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>10.891999999999999</v>
+        <v>38.929000000000002</v>
       </c>
       <c r="D6">
-        <v>308.00599999999997</v>
+        <v>378.2</v>
       </c>
       <c r="E6">
-        <v>136.77199999999999</v>
+        <v>258.40199999999999</v>
       </c>
       <c r="F6">
-        <v>259.24099999999999</v>
+        <v>305.16899999999998</v>
       </c>
       <c r="G6">
-        <v>1063.9829999999999</v>
+        <v>634.92200000000003</v>
       </c>
       <c r="H6">
-        <v>1761.269</v>
+        <v>1730.03</v>
       </c>
       <c r="I6">
-        <v>3.2309999999999999</v>
+        <v>21.253</v>
       </c>
       <c r="J6">
-        <v>131.91999999999999</v>
+        <v>1.476</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1015.366</v>
+        <v>472.39100000000002</v>
       </c>
       <c r="O6">
-        <v>1350.1389999999999</v>
+        <v>608.68299999999999</v>
       </c>
       <c r="P6">
-        <v>425.98099999999999</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="Q6">
-        <v>-94.498999999999995</v>
+        <v>50.447000000000003</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="S6">
-        <v>4700</v>
+        <v>5600</v>
       </c>
       <c r="T6">
-        <v>411.13</v>
+        <v>1121.347</v>
       </c>
       <c r="U6">
-        <v>601.60199999999998</v>
+        <v>206.31100000000001</v>
       </c>
       <c r="V6">
-        <v>62.137</v>
+        <v>19.7</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-151.94</v>
+        <v>-6.1769999999999996</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>5.1719999999999997</v>
+        <v>40.003</v>
       </c>
       <c r="AA6">
-        <v>10.891999999999999</v>
+        <v>38.929000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>31.103999999999999</v>
+        <v>21.344999999999999</v>
       </c>
       <c r="D7">
-        <v>315.83</v>
+        <v>344.714</v>
       </c>
       <c r="E7">
-        <v>79.997</v>
+        <v>243.31899999999999</v>
       </c>
       <c r="F7">
-        <v>269.24400000000003</v>
+        <v>277.11599999999999</v>
       </c>
       <c r="G7">
-        <v>1111.644</v>
+        <v>582.95699999999999</v>
       </c>
       <c r="H7">
-        <v>1794.8320000000001</v>
+        <v>1721.0820000000001</v>
       </c>
       <c r="I7">
-        <v>143.76</v>
+        <v>193.70500000000001</v>
       </c>
       <c r="J7">
-        <v>133.459</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N7">
-        <v>1011.426</v>
+        <v>415.005</v>
       </c>
       <c r="O7">
-        <v>1334.08</v>
+        <v>569.55200000000002</v>
       </c>
       <c r="P7">
-        <v>431.11200000000002</v>
+        <v>2.5470000000000002</v>
       </c>
       <c r="Q7">
-        <v>58.085000000000001</v>
+        <v>-27.085999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>460.75200000000001</v>
+        <v>1151.53</v>
       </c>
       <c r="U7">
-        <v>659.68700000000001</v>
+        <v>179.22499999999999</v>
       </c>
       <c r="V7">
-        <v>60.709000000000003</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>9.391</v>
+        <v>2.629</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1.254</v>
       </c>
       <c r="Z7">
-        <v>-0.20599999999999999</v>
+        <v>21.765000000000001</v>
       </c>
       <c r="AA7">
-        <v>31.103999999999999</v>
+        <v>21.344999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>36.386000000000003</v>
+        <v>-46.320999999999998</v>
       </c>
       <c r="D8">
-        <v>326.476</v>
+        <v>344.82</v>
       </c>
       <c r="E8">
-        <v>123.24299999999999</v>
+        <v>288.37400000000002</v>
       </c>
       <c r="F8">
-        <v>276.99900000000002</v>
+        <v>268.40699999999998</v>
       </c>
       <c r="G8">
-        <v>1158.4459999999999</v>
+        <v>678.42</v>
       </c>
       <c r="H8">
-        <v>1829.2570000000001</v>
+        <v>2109.5610000000001</v>
       </c>
       <c r="I8">
-        <v>153.95699999999999</v>
+        <v>261.613</v>
       </c>
       <c r="J8">
-        <v>135.006</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1002.853</v>
+        <v>495.21300000000002</v>
       </c>
       <c r="O8">
-        <v>1327.2439999999999</v>
+        <v>676.32799999999997</v>
       </c>
       <c r="P8">
-        <v>436.298</v>
+        <v>2.367</v>
       </c>
       <c r="Q8">
-        <v>1.9710000000000001</v>
+        <v>59.960999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>502.01299999999998</v>
+        <v>1433.2329999999999</v>
       </c>
       <c r="U8">
-        <v>661.65800000000002</v>
+        <v>239.18600000000001</v>
       </c>
       <c r="V8">
-        <v>67.478999999999999</v>
+        <v>51.671999999999997</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-5.0960000000000001</v>
+        <v>-9.0739999999999998</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1.135</v>
       </c>
       <c r="Z8">
-        <v>-48.947000000000003</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="AA8">
-        <v>36.386000000000003</v>
+        <v>-46.320999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>58.584000000000003</v>
+        <v>8.2309999999999999</v>
       </c>
       <c r="D9">
-        <v>338.53300000000002</v>
+        <v>327.23599999999999</v>
       </c>
       <c r="E9">
-        <v>123.206</v>
+        <v>298.3</v>
       </c>
       <c r="F9">
-        <v>287.26299999999998</v>
+        <v>267.161</v>
       </c>
       <c r="G9">
-        <v>1250.6120000000001</v>
+        <v>581.80799999999999</v>
       </c>
       <c r="H9">
-        <v>1988.5139999999999</v>
+        <v>2207.7719999999999</v>
       </c>
       <c r="I9">
-        <v>160.25</v>
+        <v>245.91800000000001</v>
       </c>
       <c r="J9">
-        <v>136.59399999999999</v>
+        <v>95.867000000000004</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1074.6179999999999</v>
+        <v>441.05200000000002</v>
       </c>
       <c r="O9">
-        <v>1400.126</v>
+        <v>705.26800000000003</v>
       </c>
       <c r="P9">
-        <v>441.62299999999999</v>
+        <v>97.552000000000007</v>
       </c>
       <c r="Q9">
-        <v>-12.558999999999999</v>
+        <v>-75.051000000000002</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>588.38800000000003</v>
+        <v>1502.5039999999999</v>
       </c>
       <c r="U9">
-        <v>649.09900000000005</v>
+        <v>164.13499999999999</v>
       </c>
       <c r="V9">
-        <v>91.93</v>
+        <v>-3.6389999999999998</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>13.847</v>
+        <v>15.715999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-44.865000000000002</v>
+        <v>9.093</v>
       </c>
       <c r="AA9">
-        <v>58.584000000000003</v>
+        <v>8.2309999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>313.87400000000002</v>
+        <v>77.084000000000003</v>
       </c>
       <c r="D10">
-        <v>345.58499999999998</v>
+        <v>271.173</v>
       </c>
       <c r="E10">
-        <v>97.820999999999998</v>
+        <v>313.96800000000002</v>
       </c>
       <c r="F10">
-        <v>301.79500000000002</v>
+        <v>183.23500000000001</v>
       </c>
       <c r="G10">
-        <v>1391.2349999999999</v>
+        <v>758.64300000000003</v>
       </c>
       <c r="H10">
-        <v>2287.0030000000002</v>
+        <v>2426.623</v>
       </c>
       <c r="I10">
-        <v>6.4119999999999999</v>
+        <v>27.398</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1217.27</v>
+        <v>504.32</v>
       </c>
       <c r="O10">
-        <v>1371.8320000000001</v>
+        <v>782.59299999999996</v>
       </c>
       <c r="P10">
-        <v>447.01100000000002</v>
+        <v>54.268000000000001</v>
       </c>
       <c r="Q10">
-        <v>77.257999999999996</v>
+        <v>207.19200000000001</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="S10">
-        <v>5200</v>
+        <v>5175</v>
       </c>
       <c r="T10">
-        <v>915.17100000000005</v>
+        <v>1644.03</v>
       </c>
       <c r="U10">
-        <v>726.35699999999997</v>
+        <v>371.327</v>
       </c>
       <c r="V10">
-        <v>95.876000000000005</v>
+        <v>297.63099999999997</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-2.3090000000000002</v>
+        <v>-63.371000000000002</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="Z10">
-        <v>-4.8239999999999998</v>
+        <v>1.05</v>
       </c>
       <c r="AA10">
-        <v>313.87400000000002</v>
+        <v>77.084000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>78.608999999999995</v>
+        <v>-13.038</v>
       </c>
       <c r="D11">
-        <v>354.26600000000002</v>
+        <v>263.05200000000002</v>
       </c>
       <c r="E11">
-        <v>75.253</v>
+        <v>297.57</v>
       </c>
       <c r="F11">
-        <v>306.07499999999999</v>
+        <v>205.69300000000001</v>
       </c>
       <c r="G11">
-        <v>1461.912</v>
+        <v>608.93799999999999</v>
       </c>
       <c r="H11">
-        <v>2323.2629999999999</v>
+        <v>2292.7849999999999</v>
       </c>
       <c r="I11">
-        <v>156.60599999999999</v>
+        <v>237.30199999999999</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.223000000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,84 +1636,84 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-2.5259999999999998</v>
+        <v>-52.594000000000001</v>
       </c>
       <c r="N11">
-        <v>1210.625</v>
+        <v>447.48200000000003</v>
       </c>
       <c r="O11">
-        <v>1303.5899999999999</v>
+        <v>688.57899999999995</v>
       </c>
       <c r="P11">
-        <v>452.57100000000003</v>
+        <v>11.673999999999999</v>
       </c>
       <c r="Q11">
-        <v>83.795000000000002</v>
+        <v>-131.93199999999999</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1019.673</v>
+        <v>1604.2059999999999</v>
       </c>
       <c r="U11">
-        <v>810.15200000000004</v>
+        <v>239.39500000000001</v>
       </c>
       <c r="V11">
-        <v>75.335999999999999</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>15.194000000000001</v>
+        <v>-82.668000000000006</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>5.5049999999999999</v>
+        <v>-5.569</v>
       </c>
       <c r="AA11">
-        <v>78.608999999999995</v>
+        <v>-13.038</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>9.4290000000000003</v>
+        <v>-5.3040000000000003</v>
       </c>
       <c r="D12">
-        <v>362.48099999999999</v>
+        <v>276.58100000000002</v>
       </c>
       <c r="E12">
-        <v>92.581000000000003</v>
+        <v>327.97699999999998</v>
       </c>
       <c r="F12">
-        <v>319.238</v>
+        <v>220.71100000000001</v>
       </c>
       <c r="G12">
-        <v>1265.499</v>
+        <v>626.77499999999998</v>
       </c>
       <c r="H12">
-        <v>2563.0889999999999</v>
+        <v>2439.6689999999999</v>
       </c>
       <c r="I12">
-        <v>185.809</v>
+        <v>250.92</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>35.125</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1361.903</v>
+        <v>487.01299999999998</v>
       </c>
       <c r="O12">
-        <v>1522.829</v>
+        <v>807.89499999999998</v>
       </c>
       <c r="P12">
-        <v>558.17899999999997</v>
+        <v>36.058</v>
       </c>
       <c r="Q12">
-        <v>-232.91900000000001</v>
+        <v>-32.182000000000002</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1040.26</v>
+        <v>1631.7739999999999</v>
       </c>
       <c r="U12">
-        <v>577.23299999999995</v>
+        <v>207.21299999999999</v>
       </c>
       <c r="V12">
-        <v>74.894999999999996</v>
+        <v>39.526000000000003</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>107.467</v>
+        <v>31.253</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.53500000000000003</v>
+        <v>-3.8330000000000002</v>
       </c>
       <c r="AA12">
-        <v>9.4290000000000003</v>
+        <v>-5.3040000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>38.5</v>
+        <v>-14.456</v>
       </c>
       <c r="D13">
-        <v>366.64699999999999</v>
+        <v>268.76</v>
       </c>
       <c r="E13">
-        <v>101.896</v>
+        <v>288.65800000000002</v>
       </c>
       <c r="F13">
-        <v>316.911</v>
+        <v>217.398</v>
       </c>
       <c r="G13">
-        <v>1274.163</v>
+        <v>788.822</v>
       </c>
       <c r="H13">
-        <v>2557.3870000000002</v>
+        <v>2671.3249999999998</v>
       </c>
       <c r="I13">
-        <v>193.44499999999999</v>
+        <v>272.90499999999997</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1297.69</v>
+        <v>532.56500000000005</v>
       </c>
       <c r="O13">
-        <v>1461.181</v>
+        <v>1219.7629999999999</v>
       </c>
       <c r="P13">
-        <v>513.83699999999999</v>
+        <v>420.88099999999997</v>
       </c>
       <c r="Q13">
-        <v>43.17</v>
+        <v>186.99</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="T13">
-        <v>1096.2059999999999</v>
+        <v>1451.5619999999999</v>
       </c>
       <c r="U13">
-        <v>620.40300000000002</v>
+        <v>394.20299999999997</v>
       </c>
       <c r="V13">
-        <v>98.21</v>
+        <v>70.405000000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-45.218000000000004</v>
+        <v>171.703</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Z13">
-        <v>6.75</v>
+        <v>-24.939</v>
       </c>
       <c r="AA13">
-        <v>38.5</v>
+        <v>-14.456</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37989</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>37.704999999999998</v>
+        <v>15.231999999999999</v>
       </c>
       <c r="D14">
-        <v>376.72199999999998</v>
+        <v>311.09100000000001</v>
       </c>
       <c r="E14">
-        <v>107.624</v>
+        <v>348.68</v>
       </c>
       <c r="F14">
-        <v>317.69099999999997</v>
+        <v>254.953</v>
       </c>
       <c r="G14">
-        <v>1221.0909999999999</v>
+        <v>842.24099999999999</v>
       </c>
       <c r="H14">
-        <v>2428.6010000000001</v>
+        <v>2817.902</v>
       </c>
       <c r="I14">
-        <v>24.963000000000001</v>
+        <v>27.547000000000001</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1148.21</v>
+        <v>481.928</v>
       </c>
       <c r="O14">
-        <v>1272.4960000000001</v>
+        <v>1245.6210000000001</v>
       </c>
       <c r="P14">
-        <v>324.82600000000002</v>
+        <v>420</v>
       </c>
       <c r="Q14">
-        <v>-84.143000000000001</v>
+        <v>-70.028000000000006</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37989</v>
       </c>
       <c r="S14">
-        <v>5700</v>
+        <v>4800</v>
       </c>
       <c r="T14">
-        <v>1156.105</v>
+        <v>1572.2809999999999</v>
       </c>
       <c r="U14">
-        <v>536.26</v>
+        <v>309.17500000000001</v>
       </c>
       <c r="V14">
-        <v>119.164</v>
+        <v>60.034999999999997</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-193.73400000000001</v>
+        <v>28.931999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-0.86099999999999999</v>
+        <v>-62.496000000000002</v>
       </c>
       <c r="AA14">
-        <v>37.704999999999998</v>
+        <v>15.231999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>33.07</v>
+        <v>-8.7550000000000008</v>
       </c>
       <c r="D15">
-        <v>378.55</v>
+        <v>265.72399999999999</v>
       </c>
       <c r="E15">
-        <v>106.322</v>
+        <v>354.87799999999999</v>
       </c>
       <c r="F15">
-        <v>321.45100000000002</v>
+        <v>210.553</v>
       </c>
       <c r="G15">
-        <v>1297.7249999999999</v>
+        <v>939.40700000000004</v>
       </c>
       <c r="H15">
-        <v>2524.2199999999998</v>
+        <v>2845.502</v>
       </c>
       <c r="I15">
-        <v>184.767</v>
+        <v>251.59800000000001</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,84 +1968,84 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-0.21199999999999999</v>
       </c>
       <c r="N15">
-        <v>1192.694</v>
+        <v>492.50599999999997</v>
       </c>
       <c r="O15">
-        <v>1310.018</v>
+        <v>1225.1369999999999</v>
       </c>
       <c r="P15">
-        <v>329.05799999999999</v>
+        <v>420</v>
       </c>
       <c r="Q15">
-        <v>-3.4990000000000001</v>
+        <v>36.725000000000001</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1214.202</v>
+        <v>1620.365</v>
       </c>
       <c r="U15">
-        <v>532.76099999999997</v>
+        <v>466.9</v>
       </c>
       <c r="V15">
-        <v>28.097999999999999</v>
+        <v>59.66</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-0.129</v>
+        <v>38.067999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.51400000000000001</v>
+        <v>-44.417999999999999</v>
       </c>
       <c r="AA15">
-        <v>33.07</v>
+        <v>-8.7550000000000008</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>23.263000000000002</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="D16">
-        <v>378.78800000000001</v>
+        <v>287.07900000000001</v>
       </c>
       <c r="E16">
-        <v>101.92400000000001</v>
+        <v>347.63099999999997</v>
       </c>
       <c r="F16">
-        <v>324.375</v>
+        <v>235.05600000000001</v>
       </c>
       <c r="G16">
-        <v>1414.7190000000001</v>
+        <v>854.71199999999999</v>
       </c>
       <c r="H16">
-        <v>2785.8330000000001</v>
+        <v>2795.8530000000001</v>
       </c>
       <c r="I16">
-        <v>214.80799999999999</v>
+        <v>261.51600000000002</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1408.047</v>
+        <v>504.096</v>
       </c>
       <c r="O16">
-        <v>1525.3489999999999</v>
+        <v>1228.7339999999999</v>
       </c>
       <c r="P16">
-        <v>433.33300000000003</v>
+        <v>420</v>
       </c>
       <c r="Q16">
-        <v>24.655000000000001</v>
+        <v>-53.128999999999998</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1260.4839999999999</v>
+        <v>1567.1189999999999</v>
       </c>
       <c r="U16">
-        <v>557.41600000000005</v>
+        <v>389.721</v>
       </c>
       <c r="V16">
-        <v>68.864999999999995</v>
+        <v>101.36</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>100.09399999999999</v>
+        <v>-64.289000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1.4239999999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AA16">
-        <v>23.263000000000002</v>
+        <v>3.8029999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>37.534999999999997</v>
+        <v>19.631</v>
       </c>
       <c r="D17">
-        <v>400.49599999999998</v>
+        <v>301.58100000000002</v>
       </c>
       <c r="E17">
-        <v>107.634</v>
+        <v>355.69200000000001</v>
       </c>
       <c r="F17">
-        <v>346.41699999999997</v>
+        <v>241.05699999999999</v>
       </c>
       <c r="G17">
-        <v>1351.61</v>
+        <v>896.21</v>
       </c>
       <c r="H17">
-        <v>2705.9409999999998</v>
+        <v>2819.9659999999999</v>
       </c>
       <c r="I17">
-        <v>196.50299999999999</v>
+        <v>244.82</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1296.0440000000001</v>
+        <v>495.37900000000002</v>
       </c>
       <c r="O17">
-        <v>1421.2139999999999</v>
+        <v>1225.8879999999999</v>
       </c>
       <c r="P17">
-        <v>337.71100000000001</v>
+        <v>420</v>
       </c>
       <c r="Q17">
-        <v>-56.933</v>
+        <v>68.861000000000004</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1284.7270000000001</v>
+        <v>1594.078</v>
       </c>
       <c r="U17">
-        <v>500.483</v>
+        <v>423.55700000000002</v>
       </c>
       <c r="V17">
-        <v>87.691999999999993</v>
+        <v>72.924000000000007</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-127.843</v>
+        <v>-4.3140000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>3.012</v>
+        <v>31.088999999999999</v>
       </c>
       <c r="AA17">
-        <v>37.534999999999997</v>
+        <v>19.631</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42007</v>
+        <v>38353</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>65.03</v>
+        <v>59.795000000000002</v>
       </c>
       <c r="D18">
-        <v>423.09800000000001</v>
+        <v>343.096</v>
       </c>
       <c r="E18">
-        <v>122.492</v>
+        <v>384.11399999999998</v>
       </c>
       <c r="F18">
-        <v>364.983</v>
+        <v>284.74799999999999</v>
       </c>
       <c r="G18">
-        <v>1851.7349999999999</v>
+        <v>1069.915</v>
       </c>
       <c r="H18">
-        <v>3209.556</v>
+        <v>2989.8389999999999</v>
       </c>
       <c r="I18">
-        <v>12.102</v>
+        <v>28.449000000000002</v>
       </c>
       <c r="J18">
-        <v>348.67599999999999</v>
+        <v>420</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1393.0909999999999</v>
+        <v>548.95799999999997</v>
       </c>
       <c r="O18">
-        <v>1875.982</v>
+        <v>1289.8689999999999</v>
       </c>
       <c r="P18">
-        <v>691.17499999999995</v>
+        <v>420</v>
       </c>
       <c r="Q18">
-        <v>431.678</v>
+        <v>86.885000000000005</v>
       </c>
       <c r="R18">
-        <v>42007</v>
+        <v>38353</v>
       </c>
       <c r="S18">
-        <v>6100</v>
+        <v>4900</v>
       </c>
       <c r="T18">
-        <v>1333.5740000000001</v>
+        <v>1699.97</v>
       </c>
       <c r="U18">
-        <v>932.16099999999994</v>
+        <v>448.517</v>
       </c>
       <c r="V18">
-        <v>132.06700000000001</v>
+        <v>138.578</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>316.84300000000002</v>
+        <v>9.4580000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>4.9939999999999998</v>
+        <v>-44.042999999999999</v>
       </c>
       <c r="AA18">
-        <v>65.03</v>
+        <v>59.795000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>36.259</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="D19">
-        <v>411.36599999999999</v>
+        <v>292.53699999999998</v>
       </c>
       <c r="E19">
-        <v>133.92400000000001</v>
+        <v>289.07600000000002</v>
       </c>
       <c r="F19">
-        <v>350.78100000000001</v>
+        <v>233.02</v>
       </c>
       <c r="G19">
-        <v>1733.644</v>
+        <v>1072.077</v>
       </c>
       <c r="H19">
-        <v>3062.5650000000001</v>
+        <v>2978.2</v>
       </c>
       <c r="I19">
-        <v>172.46600000000001</v>
+        <v>231.67400000000001</v>
       </c>
       <c r="J19">
-        <v>348.70499999999998</v>
+        <v>420</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-53.862000000000002</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="N19">
-        <v>1226.4359999999999</v>
+        <v>485.51100000000002</v>
       </c>
       <c r="O19">
-        <v>1699.375</v>
+        <v>1232.971</v>
       </c>
       <c r="P19">
-        <v>642.37199999999996</v>
+        <v>420</v>
       </c>
       <c r="Q19">
-        <v>-44.424999999999997</v>
+        <v>208.303</v>
       </c>
       <c r="R19">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1363.19</v>
+        <v>1745.229</v>
       </c>
       <c r="U19">
-        <v>887.73599999999999</v>
+        <v>656.82</v>
       </c>
       <c r="V19">
-        <v>46.688000000000002</v>
+        <v>66.992999999999995</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-73.682000000000002</v>
+        <v>39.561999999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-0.89600000000000002</v>
+        <v>120.38</v>
       </c>
       <c r="AA19">
-        <v>36.259</v>
+        <v>1.0229999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>58.16</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D20">
-        <v>415.88299999999998</v>
+        <v>320.911</v>
       </c>
       <c r="E20">
-        <v>131.32499999999999</v>
+        <v>297.25200000000001</v>
       </c>
       <c r="F20">
-        <v>364.12799999999999</v>
+        <v>260.88</v>
       </c>
       <c r="G20">
-        <v>1067.2280000000001</v>
+        <v>968.14</v>
       </c>
       <c r="H20">
-        <v>2380.6529999999998</v>
+        <v>3063.8690000000001</v>
       </c>
       <c r="I20">
-        <v>199.245</v>
+        <v>224.75299999999999</v>
       </c>
       <c r="J20">
-        <v>348.733</v>
+        <v>420</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>527.36300000000006</v>
+        <v>541.22799999999995</v>
       </c>
       <c r="O20">
-        <v>983.43799999999999</v>
+        <v>1291.9480000000001</v>
       </c>
       <c r="P20">
-        <v>348.733</v>
+        <v>420</v>
       </c>
       <c r="Q20">
-        <v>-239.88499999999999</v>
+        <v>-113.265</v>
       </c>
       <c r="R20">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1397.2149999999999</v>
+        <v>1771.921</v>
       </c>
       <c r="U20">
-        <v>647.851</v>
+        <v>543.55499999999995</v>
       </c>
       <c r="V20">
-        <v>121.754</v>
+        <v>128.989</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-336.94299999999998</v>
+        <v>12.302</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-3.141</v>
+        <v>-0.84499999999999997</v>
       </c>
       <c r="AA20">
-        <v>58.16</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>77.623999999999995</v>
+        <v>21.271000000000001</v>
       </c>
       <c r="D21">
-        <v>433.76299999999998</v>
+        <v>337.38099999999997</v>
       </c>
       <c r="E21">
-        <v>133.66499999999999</v>
+        <v>277.11700000000002</v>
       </c>
       <c r="F21">
-        <v>368.55200000000002</v>
+        <v>280.10899999999998</v>
       </c>
       <c r="G21">
-        <v>1042.0840000000001</v>
+        <v>1050.566</v>
       </c>
       <c r="H21">
-        <v>2331.14</v>
+        <v>3114.5479999999998</v>
       </c>
       <c r="I21">
-        <v>192.50700000000001</v>
+        <v>205.59200000000001</v>
       </c>
       <c r="J21">
-        <v>348.76</v>
+        <v>420</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>509.64699999999999</v>
+        <v>490.41300000000001</v>
       </c>
       <c r="O21">
-        <v>946.57799999999997</v>
+        <v>1247.6500000000001</v>
       </c>
       <c r="P21">
-        <v>348.76</v>
+        <v>420</v>
       </c>
       <c r="Q21">
-        <v>-31.76</v>
+        <v>75.215000000000003</v>
       </c>
       <c r="R21">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1384.5619999999999</v>
+        <v>1866.8979999999999</v>
       </c>
       <c r="U21">
-        <v>616.09100000000001</v>
+        <v>618.77</v>
       </c>
       <c r="V21">
-        <v>86.906999999999996</v>
+        <v>53.628999999999998</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-107.916</v>
+        <v>57.485999999999997</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>3.6030000000000002</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="AA21">
-        <v>77.623999999999995</v>
+        <v>21.271000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>80.373999999999995</v>
+        <v>26.565999999999999</v>
       </c>
       <c r="D22">
-        <v>441.07900000000001</v>
+        <v>378.363</v>
       </c>
       <c r="E22">
-        <v>164.84800000000001</v>
+        <v>282.07299999999998</v>
       </c>
       <c r="F22">
-        <v>380.17700000000002</v>
+        <v>323.77499999999998</v>
       </c>
       <c r="G22">
-        <v>964.23500000000001</v>
+        <v>1276.3019999999999</v>
       </c>
       <c r="H22">
-        <v>2345.5149999999999</v>
+        <v>3401.3119999999999</v>
       </c>
       <c r="I22">
-        <v>25.152000000000001</v>
+        <v>23.393000000000001</v>
       </c>
       <c r="J22">
-        <v>343.28800000000001</v>
+        <v>548</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>536.30700000000002</v>
+        <v>605.851</v>
       </c>
       <c r="O22">
-        <v>969.4</v>
+        <v>1556.6079999999999</v>
       </c>
       <c r="P22">
-        <v>343.28800000000001</v>
+        <v>580</v>
       </c>
       <c r="Q22">
-        <v>0.59499999999999997</v>
+        <v>242.54499999999999</v>
       </c>
       <c r="R22">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6700</v>
+        <v>5000</v>
       </c>
       <c r="T22">
-        <v>1376.115</v>
+        <v>1844.704</v>
       </c>
       <c r="U22">
-        <v>616.68600000000004</v>
+        <v>861.31500000000005</v>
       </c>
       <c r="V22">
-        <v>122.851</v>
+        <v>176.672</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-107.76900000000001</v>
+        <v>95.998999999999995</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.73799999999999999</v>
+        <v>-4.9580000000000002</v>
       </c>
       <c r="AA22">
-        <v>80.373999999999995</v>
+        <v>26.565999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>50.561999999999998</v>
+        <v>21.779</v>
       </c>
       <c r="D23">
-        <v>447.86200000000002</v>
+        <v>328.214</v>
       </c>
       <c r="E23">
-        <v>147.53299999999999</v>
+        <v>242.565</v>
       </c>
       <c r="F23">
-        <v>385.80799999999999</v>
+        <v>267.61700000000002</v>
       </c>
       <c r="G23">
-        <v>1152.2439999999999</v>
+        <v>1249.21</v>
       </c>
       <c r="H23">
-        <v>2539.0239999999999</v>
+        <v>3381.83</v>
       </c>
       <c r="I23">
-        <v>186.57400000000001</v>
+        <v>237.22200000000001</v>
       </c>
       <c r="J23">
-        <v>642.86199999999997</v>
+        <v>511</v>
       </c>
       <c r="K23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="N23">
-        <v>567.9</v>
+        <v>555.79899999999998</v>
       </c>
       <c r="O23">
-        <v>1304.972</v>
+        <v>1494.1590000000001</v>
       </c>
       <c r="P23">
-        <v>692.86199999999997</v>
+        <v>547</v>
       </c>
       <c r="Q23">
-        <v>193.714</v>
+        <v>11.571</v>
       </c>
       <c r="R23">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1234.0519999999999</v>
+        <v>1887.671</v>
       </c>
       <c r="U23">
-        <v>810.4</v>
+        <v>872.88599999999997</v>
       </c>
       <c r="V23">
-        <v>83.191000000000003</v>
+        <v>41.393999999999998</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>118.43300000000001</v>
+        <v>-34.432000000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>2.0579999999999998</v>
+        <v>21.687000000000001</v>
       </c>
       <c r="AA23">
-        <v>50.561999999999998</v>
+        <v>21.779</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>49.335000000000001</v>
+        <v>30.388000000000002</v>
       </c>
       <c r="D24">
-        <v>453.02100000000002</v>
+        <v>358.51299999999998</v>
       </c>
       <c r="E24">
-        <v>156.44399999999999</v>
+        <v>295.45400000000001</v>
       </c>
       <c r="F24">
-        <v>391.238</v>
+        <v>298.66699999999997</v>
       </c>
       <c r="G24">
-        <v>962.17899999999997</v>
+        <v>1261.9490000000001</v>
       </c>
       <c r="H24">
-        <v>2377.873</v>
+        <v>3404.1019999999999</v>
       </c>
       <c r="I24">
-        <v>221.244</v>
+        <v>233.37799999999999</v>
       </c>
       <c r="J24">
-        <v>643.07299999999998</v>
+        <v>474</v>
       </c>
       <c r="K24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>564.471</v>
+        <v>609.23500000000001</v>
       </c>
       <c r="O24">
-        <v>1302.48</v>
+        <v>1521.126</v>
       </c>
       <c r="P24">
-        <v>693.07299999999998</v>
+        <v>514</v>
       </c>
       <c r="Q24">
-        <v>-140.827</v>
+        <v>-47.023000000000003</v>
       </c>
       <c r="R24">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1075.393</v>
+        <v>1882.9760000000001</v>
       </c>
       <c r="U24">
-        <v>669.57299999999998</v>
+        <v>825.86300000000006</v>
       </c>
       <c r="V24">
-        <v>80.366</v>
+        <v>114.955</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-230.34899999999999</v>
+        <v>-89.251999999999995</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>61.283000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>49.335000000000001</v>
+        <v>30.388000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>64.712000000000003</v>
+        <v>42.06</v>
       </c>
       <c r="D25">
-        <v>446.22</v>
+        <v>366.14800000000002</v>
       </c>
       <c r="E25">
-        <v>152.02500000000001</v>
+        <v>248.624</v>
       </c>
       <c r="F25">
-        <v>389.613</v>
+        <v>313.41300000000001</v>
       </c>
       <c r="G25">
-        <v>792.29</v>
+        <v>1144.046</v>
       </c>
       <c r="H25">
-        <v>2194.087</v>
+        <v>3279.7420000000002</v>
       </c>
       <c r="I25">
-        <v>192.15</v>
+        <v>194.89400000000001</v>
       </c>
       <c r="J25">
-        <v>643.27700000000004</v>
+        <v>437</v>
       </c>
       <c r="K25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>531.32100000000003</v>
+        <v>517.76800000000003</v>
       </c>
       <c r="O25">
-        <v>1267.2909999999999</v>
+        <v>1398.3779999999999</v>
       </c>
       <c r="P25">
-        <v>693.27700000000004</v>
+        <v>481</v>
       </c>
       <c r="Q25">
-        <v>-145.24</v>
+        <v>-68.352999999999994</v>
       </c>
       <c r="R25">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>926.79600000000005</v>
+        <v>1881.364</v>
       </c>
       <c r="U25">
-        <v>524.33299999999997</v>
+        <v>757.51</v>
       </c>
       <c r="V25">
-        <v>84.46</v>
+        <v>60.143999999999998</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-244.14099999999999</v>
+        <v>-99.828999999999994</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>26.827000000000002</v>
+        <v>3.4540000000000002</v>
       </c>
       <c r="AA25">
-        <v>64.712000000000003</v>
+        <v>42.06</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>38.476999999999997</v>
+        <v>48.365000000000002</v>
       </c>
       <c r="D26">
-        <v>468.98</v>
+        <v>431.02</v>
       </c>
       <c r="E26">
-        <v>157.17099999999999</v>
+        <v>238.43799999999999</v>
       </c>
       <c r="F26">
-        <v>392.93200000000002</v>
+        <v>377.09899999999999</v>
       </c>
       <c r="G26">
-        <v>702.03399999999999</v>
+        <v>1312.0050000000001</v>
       </c>
       <c r="H26">
-        <v>2096.9079999999999</v>
+        <v>3442.8220000000001</v>
       </c>
       <c r="I26">
-        <v>4.367</v>
+        <v>21.968</v>
       </c>
       <c r="J26">
-        <v>643.49300000000005</v>
+        <v>730.38499999999999</v>
       </c>
       <c r="K26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,161 +2884,161 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>585.56200000000001</v>
+        <v>548.06500000000005</v>
       </c>
       <c r="O26">
-        <v>1355.1379999999999</v>
+        <v>1743.5309999999999</v>
       </c>
       <c r="P26">
-        <v>693.49300000000005</v>
+        <v>758.38499999999999</v>
       </c>
       <c r="Q26">
-        <v>-59.100999999999999</v>
+        <v>176.83199999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
-        <v>7100</v>
+        <v>5200</v>
       </c>
       <c r="T26">
-        <v>741.77</v>
+        <v>1699.2909999999999</v>
       </c>
       <c r="U26">
-        <v>465.23200000000003</v>
+        <v>934.34199999999998</v>
       </c>
       <c r="V26">
-        <v>196.86199999999999</v>
+        <v>204.72300000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-236.64</v>
+        <v>-10.414</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>5.6050000000000004</v>
+        <v>4.6029999999999998</v>
       </c>
       <c r="AA26">
-        <v>38.476999999999997</v>
+        <v>48.365000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>68.259</v>
+        <v>44.420999999999999</v>
       </c>
       <c r="D27">
-        <v>476.911</v>
+        <v>365.185</v>
       </c>
       <c r="E27">
-        <v>180.571</v>
+        <v>256.34300000000002</v>
       </c>
       <c r="F27">
-        <v>415.11900000000003</v>
+        <v>310.79500000000002</v>
       </c>
       <c r="G27">
-        <v>800.00400000000002</v>
+        <v>1355.502</v>
       </c>
       <c r="H27">
-        <v>2191.1979999999999</v>
+        <v>3569.72</v>
       </c>
       <c r="I27">
-        <v>181.74299999999999</v>
+        <v>191.40199999999999</v>
       </c>
       <c r="J27">
-        <v>643.70899999999995</v>
+        <v>730.38499999999999</v>
       </c>
       <c r="K27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="N27">
-        <v>575.82600000000002</v>
+        <v>459.589</v>
       </c>
       <c r="O27">
-        <v>1350.606</v>
+        <v>1700.8150000000001</v>
       </c>
       <c r="P27">
-        <v>693.70899999999995</v>
+        <v>730.38499999999999</v>
       </c>
       <c r="Q27">
-        <v>78.896000000000001</v>
+        <v>12.412000000000001</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>840.59199999999998</v>
+        <v>1868.905</v>
       </c>
       <c r="U27">
-        <v>544.12800000000004</v>
+        <v>946.75400000000002</v>
       </c>
       <c r="V27">
-        <v>92.43</v>
+        <v>18.963000000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-0.54800000000000004</v>
+        <v>-35.42</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.107</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="AA27">
-        <v>68.259</v>
+        <v>44.420999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>69.126999999999995</v>
+        <v>59.595999999999997</v>
       </c>
       <c r="D28">
-        <v>479.00099999999998</v>
+        <v>390.96100000000001</v>
       </c>
       <c r="E28">
-        <v>153.154</v>
+        <v>242.35300000000001</v>
       </c>
       <c r="F28">
-        <v>418.16899999999998</v>
+        <v>339.39699999999999</v>
       </c>
       <c r="G28">
-        <v>883.45</v>
+        <v>1519.6659999999999</v>
       </c>
       <c r="H28">
-        <v>2267.6990000000001</v>
+        <v>3763.9740000000002</v>
       </c>
       <c r="I28">
-        <v>216.00700000000001</v>
+        <v>189.94</v>
       </c>
       <c r="J28">
-        <v>643.92700000000002</v>
+        <v>730.38499999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>544.72500000000002</v>
+        <v>468.471</v>
       </c>
       <c r="O28">
-        <v>1315.9059999999999</v>
+        <v>1711.5740000000001</v>
       </c>
       <c r="P28">
-        <v>643.92700000000002</v>
+        <v>730.38499999999999</v>
       </c>
       <c r="Q28">
-        <v>111.87</v>
+        <v>181.77500000000001</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>951.79300000000001</v>
+        <v>2052.4</v>
       </c>
       <c r="U28">
-        <v>655.99800000000005</v>
+        <v>1128.529</v>
       </c>
       <c r="V28">
-        <v>162.13999999999999</v>
+        <v>101.182</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-46.097000000000001</v>
+        <v>98.578999999999994</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>8.2000000000000003E-2</v>
+        <v>4.0640000000000001</v>
       </c>
       <c r="AA28">
-        <v>69.126999999999995</v>
+        <v>59.595999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>81.156999999999996</v>
+        <v>72.731999999999999</v>
       </c>
       <c r="D29">
-        <v>485.39800000000002</v>
+        <v>400.92399999999998</v>
       </c>
       <c r="E29">
-        <v>170.31200000000001</v>
+        <v>278.2</v>
       </c>
       <c r="F29">
-        <v>430.916</v>
+        <v>348.52</v>
       </c>
       <c r="G29">
-        <v>931.10500000000002</v>
+        <v>1378.8620000000001</v>
       </c>
       <c r="H29">
-        <v>2305.2269999999999</v>
+        <v>3739.2750000000001</v>
       </c>
       <c r="I29">
-        <v>196.215</v>
+        <v>230.73699999999999</v>
       </c>
       <c r="J29">
-        <v>644.14599999999996</v>
+        <v>500</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>520.13400000000001</v>
+        <v>713.44</v>
       </c>
       <c r="O29">
-        <v>1294.4870000000001</v>
+        <v>1786.4269999999999</v>
       </c>
       <c r="P29">
-        <v>644.14599999999996</v>
+        <v>730.38499999999999</v>
       </c>
       <c r="Q29">
-        <v>22.286000000000001</v>
+        <v>-192.94200000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1010.74</v>
+        <v>1952.848</v>
       </c>
       <c r="U29">
-        <v>678.28399999999999</v>
+        <v>935.58699999999999</v>
       </c>
       <c r="V29">
-        <v>89.313999999999993</v>
+        <v>88.783000000000001</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-62.872</v>
+        <v>-197.01900000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>9.34</v>
+        <v>2.028</v>
       </c>
       <c r="AA29">
-        <v>81.156999999999996</v>
+        <v>72.731999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-14.442</v>
+        <v>119.503</v>
       </c>
       <c r="D30">
-        <v>501.72199999999998</v>
+        <v>457.94299999999998</v>
       </c>
       <c r="E30">
-        <v>194.39</v>
+        <v>326.21100000000001</v>
       </c>
       <c r="F30">
-        <v>441.43799999999999</v>
+        <v>401.79300000000001</v>
       </c>
       <c r="G30">
-        <v>979.98800000000006</v>
+        <v>1529.5630000000001</v>
       </c>
       <c r="H30">
-        <v>2418.7139999999999</v>
+        <v>3871.15</v>
       </c>
       <c r="I30">
-        <v>4.8250000000000002</v>
+        <v>17.007000000000001</v>
       </c>
       <c r="J30">
-        <v>644.36900000000003</v>
+        <v>500</v>
       </c>
       <c r="K30">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,161 +3216,161 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>642.39800000000002</v>
+        <v>785.48699999999997</v>
       </c>
       <c r="O30">
-        <v>1429.5119999999999</v>
+        <v>1791.0840000000001</v>
       </c>
       <c r="P30">
-        <v>729.36900000000003</v>
+        <v>730.38499999999999</v>
       </c>
       <c r="Q30">
-        <v>9.8030000000000008</v>
+        <v>127.333</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="S30">
-        <v>7200</v>
+        <v>5300</v>
       </c>
       <c r="T30">
-        <v>989.202</v>
+        <v>2080.0659999999998</v>
       </c>
       <c r="U30">
-        <v>688.08699999999999</v>
+        <v>1062.92</v>
       </c>
       <c r="V30">
-        <v>126.85599999999999</v>
+        <v>193.51</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>39.369999999999997</v>
+        <v>-36.206000000000003</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.41199999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>-14.442</v>
+        <v>119.503</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>72.885000000000005</v>
+        <v>-33.142000000000003</v>
       </c>
       <c r="D31">
-        <v>517.31299999999999</v>
+        <v>270.75</v>
       </c>
       <c r="E31">
-        <v>231.899</v>
+        <v>326.97399999999999</v>
       </c>
       <c r="F31">
-        <v>454.10399999999998</v>
+        <v>219.01599999999999</v>
       </c>
       <c r="G31">
-        <v>1069.943</v>
+        <v>1291.3869999999999</v>
       </c>
       <c r="H31">
-        <v>2486.6729999999998</v>
+        <v>3618.056</v>
       </c>
       <c r="I31">
-        <v>206.02</v>
+        <v>220.90600000000001</v>
       </c>
       <c r="J31">
-        <v>344.76600000000002</v>
+        <v>500</v>
       </c>
       <c r="K31">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-43.866999999999997</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>866.24900000000002</v>
+        <v>747.33900000000006</v>
       </c>
       <c r="O31">
-        <v>1344.375</v>
+        <v>1734.827</v>
       </c>
       <c r="P31">
-        <v>689.59199999999998</v>
+        <v>730.38499999999999</v>
       </c>
       <c r="Q31">
-        <v>58.881</v>
+        <v>-237.375</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1142.298</v>
+        <v>1883.229</v>
       </c>
       <c r="U31">
-        <v>746.96799999999996</v>
+        <v>825.54499999999996</v>
       </c>
       <c r="V31">
-        <v>157.64699999999999</v>
+        <v>-19.081</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-97.055999999999997</v>
+        <v>-192.863</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AA31">
-        <v>72.885000000000005</v>
+        <v>-33.142000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>75.149000000000001</v>
+        <v>-18.812000000000001</v>
       </c>
       <c r="D32">
-        <v>518.39099999999996</v>
+        <v>308.041</v>
       </c>
       <c r="E32">
-        <v>227.37700000000001</v>
+        <v>308.78699999999998</v>
       </c>
       <c r="F32">
-        <v>459.43099999999998</v>
+        <v>250.97800000000001</v>
       </c>
       <c r="G32">
-        <v>1129.0540000000001</v>
+        <v>1325.5340000000001</v>
       </c>
       <c r="H32">
-        <v>2527.8649999999998</v>
+        <v>3638.203</v>
       </c>
       <c r="I32">
-        <v>241.375</v>
+        <v>248.45599999999999</v>
       </c>
       <c r="J32">
-        <v>344.93900000000002</v>
+        <v>500</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>870.11500000000001</v>
+        <v>730.63300000000004</v>
       </c>
       <c r="O32">
-        <v>1339.877</v>
+        <v>1738.6579999999999</v>
       </c>
       <c r="P32">
-        <v>644.81799999999998</v>
+        <v>730.38499999999999</v>
       </c>
       <c r="Q32">
-        <v>72.572000000000003</v>
+        <v>10.968</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1187.9880000000001</v>
+        <v>1899.5450000000001</v>
       </c>
       <c r="U32">
-        <v>819.54</v>
+        <v>836.51300000000003</v>
       </c>
       <c r="V32">
-        <v>205.26599999999999</v>
+        <v>58.585999999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-96.305000000000007</v>
+        <v>18.234999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-29.484000000000002</v>
       </c>
       <c r="AA32">
-        <v>75.149000000000001</v>
+        <v>-18.812000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>99.317999999999998</v>
+        <v>-170.65600000000001</v>
       </c>
       <c r="D33">
-        <v>532.46799999999996</v>
+        <v>232.488</v>
       </c>
       <c r="E33">
-        <v>255.98699999999999</v>
+        <v>278.45800000000003</v>
       </c>
       <c r="F33">
-        <v>472.01400000000001</v>
+        <v>181.072</v>
       </c>
       <c r="G33">
-        <v>888.38099999999997</v>
+        <v>945.93600000000004</v>
       </c>
       <c r="H33">
-        <v>2273.2069999999999</v>
+        <v>3248.788</v>
       </c>
       <c r="I33">
-        <v>211.458</v>
+        <v>210.96199999999999</v>
       </c>
       <c r="J33">
-        <v>345.113</v>
+        <v>500.178</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>541.32100000000003</v>
+        <v>504.96300000000002</v>
       </c>
       <c r="O33">
-        <v>1015.79</v>
+        <v>1543.837</v>
       </c>
       <c r="P33">
-        <v>345.113</v>
+        <v>500.178</v>
       </c>
       <c r="Q33">
-        <v>-274.95499999999998</v>
+        <v>-284.76</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1257.4169999999999</v>
+        <v>1704.951</v>
       </c>
       <c r="U33">
-        <v>544.58500000000004</v>
+        <v>551.75300000000004</v>
       </c>
       <c r="V33">
-        <v>109.95399999999999</v>
+        <v>-1.7769999999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-366.971</v>
+        <v>-266.709</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>16.766999999999999</v>
       </c>
       <c r="AA33">
-        <v>99.317999999999998</v>
+        <v>-170.65600000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39816</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>98.424999999999997</v>
+        <v>-1634.105</v>
       </c>
       <c r="D34">
-        <v>569.85</v>
+        <v>227.33500000000001</v>
       </c>
       <c r="E34">
-        <v>307.137</v>
+        <v>298.66500000000002</v>
       </c>
       <c r="F34">
-        <v>493.726</v>
+        <v>178.06800000000001</v>
       </c>
       <c r="G34">
-        <v>951.09199999999998</v>
+        <v>953.99</v>
       </c>
       <c r="H34">
-        <v>2468.654</v>
+        <v>1679.8530000000001</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>33.204999999999998</v>
       </c>
       <c r="J34">
-        <v>345.291</v>
+        <v>416.572</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>708.98199999999997</v>
+        <v>564.21</v>
       </c>
       <c r="O34">
-        <v>1180.2529999999999</v>
+        <v>1493.14</v>
       </c>
       <c r="P34">
-        <v>445.291</v>
+        <v>416.572</v>
       </c>
       <c r="Q34">
-        <v>-11.287000000000001</v>
+        <v>16.501999999999999</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39816</v>
       </c>
       <c r="S34">
-        <v>7500</v>
+        <v>4900</v>
       </c>
       <c r="T34">
-        <v>1288.4010000000001</v>
+        <v>186.71299999999999</v>
       </c>
       <c r="U34">
-        <v>533.298</v>
+        <v>568.255</v>
       </c>
       <c r="V34">
-        <v>131.88399999999999</v>
+        <v>32.558</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-7.6070000000000002</v>
+        <v>-2.0819999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-112.342</v>
+        <v>3.1909999999999998</v>
       </c>
       <c r="AA34">
-        <v>98.424999999999997</v>
+        <v>-1634.105</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39907</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>120.55500000000001</v>
+        <v>-63.256999999999998</v>
       </c>
       <c r="D35">
-        <v>576.74199999999996</v>
+        <v>206.30199999999999</v>
       </c>
       <c r="E35">
-        <v>276.97800000000001</v>
+        <v>245.68899999999999</v>
       </c>
       <c r="F35">
-        <v>506.15699999999998</v>
+        <v>162.125</v>
       </c>
       <c r="G35">
-        <v>917.947</v>
+        <v>888.13499999999999</v>
       </c>
       <c r="H35">
-        <v>2546.3110000000001</v>
+        <v>1515.1379999999999</v>
       </c>
       <c r="I35">
-        <v>209.017</v>
+        <v>176.58799999999999</v>
       </c>
       <c r="J35">
-        <v>345.47</v>
+        <v>421.35899999999998</v>
       </c>
       <c r="K35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-0.79600000000000004</v>
       </c>
       <c r="N35">
-        <v>631.43899999999996</v>
+        <v>451.61200000000002</v>
       </c>
       <c r="O35">
-        <v>1180.4739999999999</v>
+        <v>1367.453</v>
       </c>
       <c r="P35">
-        <v>500.59</v>
+        <v>421.35899999999998</v>
       </c>
       <c r="Q35">
-        <v>5.6</v>
+        <v>-13.851000000000001</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39907</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1365.837</v>
+        <v>147.685</v>
       </c>
       <c r="U35">
-        <v>538.89800000000002</v>
+        <v>554.404</v>
       </c>
       <c r="V35">
-        <v>185.41399999999999</v>
+        <v>-7.3380000000000001</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-134.078</v>
+        <v>18.065999999999999</v>
       </c>
       <c r="Y35">
-        <v>81.337000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-30.712</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="AA35">
-        <v>120.55500000000001</v>
+        <v>-63.256999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39998</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>107.235</v>
+        <v>-74.356999999999999</v>
       </c>
       <c r="D36">
-        <v>580.41899999999998</v>
+        <v>209.929</v>
       </c>
       <c r="E36">
-        <v>248.11</v>
+        <v>225.37700000000001</v>
       </c>
       <c r="F36">
-        <v>518.95000000000005</v>
+        <v>163.90199999999999</v>
       </c>
       <c r="G36">
-        <v>979.24099999999999</v>
+        <v>867.24800000000005</v>
       </c>
       <c r="H36">
-        <v>2612.3249999999998</v>
+        <v>1452.6590000000001</v>
       </c>
       <c r="I36">
-        <v>218.251</v>
+        <v>161.71</v>
       </c>
       <c r="J36">
-        <v>345.65199999999999</v>
+        <v>426.17</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>610.18299999999999</v>
+        <v>441.05500000000001</v>
       </c>
       <c r="O36">
-        <v>1181.78</v>
+        <v>1366.2729999999999</v>
       </c>
       <c r="P36">
-        <v>466.553</v>
+        <v>426.17</v>
       </c>
       <c r="Q36">
-        <v>94.516999999999996</v>
+        <v>2.5209999999999999</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39998</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1430.5450000000001</v>
+        <v>86.385999999999996</v>
       </c>
       <c r="U36">
-        <v>633.41499999999996</v>
+        <v>556.92499999999995</v>
       </c>
       <c r="V36">
-        <v>246.36</v>
+        <v>10.343999999999999</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-134.88499999999999</v>
+        <v>-1.7</v>
       </c>
       <c r="Y36">
-        <v>93.451999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-5.2999999999999999E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="AA36">
-        <v>107.235</v>
+        <v>-74.356999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>101.514</v>
+        <v>-14.047000000000001</v>
       </c>
       <c r="D37">
-        <v>579.60299999999995</v>
+        <v>216.12200000000001</v>
       </c>
       <c r="E37">
-        <v>283.42700000000002</v>
+        <v>195.46799999999999</v>
       </c>
       <c r="F37">
-        <v>518.62800000000004</v>
+        <v>177.47300000000001</v>
       </c>
       <c r="G37">
-        <v>1049.9490000000001</v>
+        <v>861.16099999999994</v>
       </c>
       <c r="H37">
-        <v>2662.1979999999999</v>
+        <v>1414.2170000000001</v>
       </c>
       <c r="I37">
-        <v>246.65199999999999</v>
+        <v>152.02799999999999</v>
       </c>
       <c r="J37">
-        <v>345.83300000000003</v>
+        <v>431.072</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>618.98199999999997</v>
+        <v>405.25599999999997</v>
       </c>
       <c r="O37">
-        <v>1181.9359999999999</v>
+        <v>1318.0250000000001</v>
       </c>
       <c r="P37">
-        <v>464.05599999999998</v>
+        <v>431.072</v>
       </c>
       <c r="Q37">
-        <v>21.800999999999998</v>
+        <v>13.692</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1480.2619999999999</v>
+        <v>96.191999999999993</v>
       </c>
       <c r="U37">
-        <v>655.21600000000001</v>
+        <v>570.61699999999996</v>
       </c>
       <c r="V37">
-        <v>138.53</v>
+        <v>21.722999999999999</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-88.057000000000002</v>
+        <v>4.9740000000000002</v>
       </c>
       <c r="Y37">
-        <v>90.506</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-0.61099999999999999</v>
       </c>
       <c r="AA37">
-        <v>101.514</v>
+        <v>-14.047000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>659.67499999999995</v>
+        <v>1.79</v>
       </c>
       <c r="D38">
-        <v>599.55499999999995</v>
+        <v>220.279</v>
       </c>
       <c r="E38">
-        <v>314.755</v>
+        <v>200.62799999999999</v>
       </c>
       <c r="F38">
-        <v>526.22699999999998</v>
+        <v>179.88900000000001</v>
       </c>
       <c r="G38">
-        <v>1169.3430000000001</v>
+        <v>850.74699999999996</v>
       </c>
       <c r="H38">
-        <v>3357.2249999999999</v>
+        <v>1410.587</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>7.1749999999999998</v>
       </c>
       <c r="J38">
-        <v>346.01900000000001</v>
+        <v>436.012</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>672.39099999999996</v>
+        <v>397.89800000000002</v>
       </c>
       <c r="O38">
-        <v>1254.3309999999999</v>
+        <v>1302.2139999999999</v>
       </c>
       <c r="P38">
-        <v>456.35899999999998</v>
+        <v>436.012</v>
       </c>
       <c r="Q38">
-        <v>49.994</v>
+        <v>-1.502</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="S38">
-        <v>8100</v>
+        <v>4400</v>
       </c>
       <c r="T38">
-        <v>2102.8939999999998</v>
+        <v>108.373</v>
       </c>
       <c r="U38">
-        <v>705.21</v>
+        <v>569.11500000000001</v>
       </c>
       <c r="V38">
-        <v>159.29599999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-86.866</v>
+        <v>-0.373</v>
       </c>
       <c r="Y38">
-        <v>84.781999999999996</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>3.996</v>
       </c>
       <c r="AA38">
-        <v>659.67499999999995</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>123.988</v>
+        <v>-11.785</v>
       </c>
       <c r="D39">
-        <v>617.95699999999999</v>
+        <v>221.93799999999999</v>
       </c>
       <c r="E39">
-        <v>300.07799999999997</v>
+        <v>181.155</v>
       </c>
       <c r="F39">
-        <v>543.49400000000003</v>
+        <v>183.32300000000001</v>
       </c>
       <c r="G39">
-        <v>1399.5070000000001</v>
+        <v>879.58600000000001</v>
       </c>
       <c r="H39">
-        <v>3767.973</v>
+        <v>1414.9860000000001</v>
       </c>
       <c r="I39">
-        <v>233.334</v>
+        <v>137.68199999999999</v>
       </c>
       <c r="J39">
-        <v>346.20499999999998</v>
+        <v>441.10700000000003</v>
       </c>
       <c r="K39">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-1.7190000000000001</v>
       </c>
       <c r="N39">
-        <v>1012.429</v>
+        <v>401.72899999999998</v>
       </c>
       <c r="O39">
-        <v>1609.979</v>
+        <v>1295.951</v>
       </c>
       <c r="P39">
-        <v>696.20500000000004</v>
+        <v>441.10700000000003</v>
       </c>
       <c r="Q39">
-        <v>241.07499999999999</v>
+        <v>50.188000000000002</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2157.9940000000001</v>
+        <v>119.035</v>
       </c>
       <c r="U39">
-        <v>946.28499999999997</v>
+        <v>619.303</v>
       </c>
       <c r="V39">
-        <v>217.71899999999999</v>
+        <v>46.703000000000003</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>245.762</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>8.9640000000000004</v>
       </c>
       <c r="AA39">
-        <v>123.988</v>
+        <v>-11.785</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>131.28800000000001</v>
+        <v>48.606999999999999</v>
       </c>
       <c r="D40">
-        <v>638.41800000000001</v>
+        <v>227.06399999999999</v>
       </c>
       <c r="E40">
-        <v>322.99799999999999</v>
+        <v>191.291</v>
       </c>
       <c r="F40">
-        <v>563.20299999999997</v>
+        <v>187.904</v>
       </c>
       <c r="G40">
-        <v>1639.7829999999999</v>
+        <v>765.07600000000002</v>
       </c>
       <c r="H40">
-        <v>3999.4969999999998</v>
+        <v>1695.7550000000001</v>
       </c>
       <c r="I40">
-        <v>305.78899999999999</v>
+        <v>147.88200000000001</v>
       </c>
       <c r="J40">
-        <v>346.39400000000001</v>
+        <v>541.76700000000005</v>
       </c>
       <c r="K40">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1151.8869999999999</v>
+        <v>444.08699999999999</v>
       </c>
       <c r="O40">
-        <v>1742.866</v>
+        <v>1533.075</v>
       </c>
       <c r="P40">
-        <v>696.39400000000001</v>
+        <v>541.76700000000005</v>
       </c>
       <c r="Q40">
-        <v>242.90100000000001</v>
+        <v>-143.69999999999999</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2256.6309999999999</v>
+        <v>162.68</v>
       </c>
       <c r="U40">
-        <v>1189.1859999999999</v>
+        <v>475.60300000000001</v>
       </c>
       <c r="V40">
-        <v>345.12400000000002</v>
+        <v>48.997999999999998</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-80.787999999999997</v>
+        <v>72.216999999999999</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="AA40">
-        <v>131.28800000000001</v>
+        <v>48.606999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>40453</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>161.63</v>
+        <v>126.753</v>
       </c>
       <c r="D41">
-        <v>666.60699999999997</v>
+        <v>237.934</v>
       </c>
       <c r="E41">
-        <v>309.08999999999997</v>
+        <v>202.23699999999999</v>
       </c>
       <c r="F41">
-        <v>584.32299999999998</v>
+        <v>198.11500000000001</v>
       </c>
       <c r="G41">
-        <v>1736.482</v>
+        <v>822.30899999999997</v>
       </c>
       <c r="H41">
-        <v>4140.152</v>
+        <v>1705.9480000000001</v>
       </c>
       <c r="I41">
-        <v>289.83499999999998</v>
+        <v>151.036</v>
       </c>
       <c r="J41">
-        <v>346.584</v>
+        <v>548.09299999999996</v>
       </c>
       <c r="K41">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1117.8889999999999</v>
+        <v>461.02699999999999</v>
       </c>
       <c r="O41">
-        <v>1744.434</v>
+        <v>1409.961</v>
       </c>
       <c r="P41">
-        <v>696.58399999999995</v>
+        <v>548.09299999999996</v>
       </c>
       <c r="Q41">
-        <v>117.378</v>
+        <v>33.432000000000002</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>40453</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2395.7179999999998</v>
+        <v>295.98700000000002</v>
       </c>
       <c r="U41">
-        <v>1306.5640000000001</v>
+        <v>509.03500000000003</v>
       </c>
       <c r="V41">
-        <v>206.55699999999999</v>
+        <v>46.427999999999997</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-79.084999999999994</v>
+        <v>-8.734</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-2.3570000000000002</v>
       </c>
       <c r="AA41">
-        <v>161.63</v>
+        <v>126.753</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44198</v>
+        <v>40544</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-37.036999999999999</v>
+      </c>
+      <c r="D42">
+        <v>249.018</v>
+      </c>
+      <c r="E42">
+        <v>191.893</v>
+      </c>
+      <c r="F42">
+        <v>210.16900000000001</v>
+      </c>
+      <c r="G42">
+        <v>879.40599999999995</v>
+      </c>
+      <c r="H42">
+        <v>1732.116</v>
+      </c>
+      <c r="I42">
+        <v>5.8129999999999997</v>
+      </c>
+      <c r="J42">
+        <v>406.404</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>697.548</v>
+      </c>
+      <c r="O42">
+        <v>1455.462</v>
+      </c>
+      <c r="P42">
+        <v>549.66200000000003</v>
+      </c>
+      <c r="Q42">
+        <v>48.374000000000002</v>
+      </c>
+      <c r="R42">
+        <v>40544</v>
+      </c>
+      <c r="S42">
+        <v>4600</v>
+      </c>
+      <c r="T42">
+        <v>276.654</v>
+      </c>
+      <c r="U42">
+        <v>557.40899999999999</v>
+      </c>
+      <c r="V42">
+        <v>57.014000000000003</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-7.8209999999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0.317</v>
+      </c>
+      <c r="AA42">
+        <v>-37.036999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40635</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>6.3230000000000004</v>
+      </c>
+      <c r="D43">
+        <v>266.10199999999998</v>
+      </c>
+      <c r="E43">
+        <v>172.54300000000001</v>
+      </c>
+      <c r="F43">
+        <v>220.935</v>
+      </c>
+      <c r="G43">
+        <v>922.63800000000003</v>
+      </c>
+      <c r="H43">
+        <v>1815.704</v>
+      </c>
+      <c r="I43">
+        <v>185.148</v>
+      </c>
+      <c r="J43">
+        <v>411.19799999999998</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-2.8290000000000002</v>
+      </c>
+      <c r="N43">
+        <v>673.66200000000003</v>
+      </c>
+      <c r="O43">
+        <v>1517.998</v>
+      </c>
+      <c r="P43">
+        <v>556.197</v>
+      </c>
+      <c r="Q43">
+        <v>54.798999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40635</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>297.70600000000002</v>
+      </c>
+      <c r="U43">
+        <v>612.20799999999997</v>
+      </c>
+      <c r="V43">
+        <v>56.365000000000002</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="AA43">
+        <v>6.3230000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40726</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>26.908000000000001</v>
+      </c>
+      <c r="D44">
+        <v>283.27</v>
+      </c>
+      <c r="E44">
+        <v>150.24100000000001</v>
+      </c>
+      <c r="F44">
+        <v>231.864</v>
+      </c>
+      <c r="G44">
+        <v>1165.2550000000001</v>
+      </c>
+      <c r="H44">
+        <v>1874.625</v>
+      </c>
+      <c r="I44">
+        <v>145.49799999999999</v>
+      </c>
+      <c r="J44">
+        <v>128.928</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1184.402</v>
+      </c>
+      <c r="O44">
+        <v>1543.309</v>
+      </c>
+      <c r="P44">
+        <v>562.78499999999997</v>
+      </c>
+      <c r="Q44">
+        <v>53.109000000000002</v>
+      </c>
+      <c r="R44">
+        <v>40726</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>331.31599999999997</v>
+      </c>
+      <c r="U44">
+        <v>665.31700000000001</v>
+      </c>
+      <c r="V44">
+        <v>69.412999999999997</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-2.323</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>8.1989999999999998</v>
+      </c>
+      <c r="AA44">
+        <v>26.908000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>28.106000000000002</v>
+      </c>
+      <c r="D45">
+        <v>292.45699999999999</v>
+      </c>
+      <c r="E45">
+        <v>152.43299999999999</v>
+      </c>
+      <c r="F45">
+        <v>242.63900000000001</v>
+      </c>
+      <c r="G45">
+        <v>958.45899999999995</v>
+      </c>
+      <c r="H45">
+        <v>1860.6769999999999</v>
+      </c>
+      <c r="I45">
+        <v>139.26</v>
+      </c>
+      <c r="J45">
+        <v>420.98200000000003</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>649.53200000000004</v>
+      </c>
+      <c r="O45">
+        <v>1484.0809999999999</v>
+      </c>
+      <c r="P45">
+        <v>569.51199999999994</v>
+      </c>
+      <c r="Q45">
+        <v>30.783999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40817</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>376.596</v>
+      </c>
+      <c r="U45">
+        <v>696.101</v>
+      </c>
+      <c r="V45">
+        <v>52.427</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>6.085</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>28.106000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>10.891999999999999</v>
+      </c>
+      <c r="D46">
+        <v>308.00599999999997</v>
+      </c>
+      <c r="E46">
+        <v>136.77199999999999</v>
+      </c>
+      <c r="F46">
+        <v>259.24099999999999</v>
+      </c>
+      <c r="G46">
+        <v>1063.9829999999999</v>
+      </c>
+      <c r="H46">
+        <v>1761.269</v>
+      </c>
+      <c r="I46">
+        <v>3.2309999999999999</v>
+      </c>
+      <c r="J46">
+        <v>131.91999999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1015.366</v>
+      </c>
+      <c r="O46">
+        <v>1350.1389999999999</v>
+      </c>
+      <c r="P46">
+        <v>425.98099999999999</v>
+      </c>
+      <c r="Q46">
+        <v>-94.498999999999995</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>4700</v>
+      </c>
+      <c r="T46">
+        <v>411.13</v>
+      </c>
+      <c r="U46">
+        <v>601.60199999999998</v>
+      </c>
+      <c r="V46">
+        <v>62.137</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-151.94</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="AA46">
+        <v>10.891999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>31.103999999999999</v>
+      </c>
+      <c r="D47">
+        <v>315.83</v>
+      </c>
+      <c r="E47">
+        <v>79.997</v>
+      </c>
+      <c r="F47">
+        <v>269.24400000000003</v>
+      </c>
+      <c r="G47">
+        <v>1111.644</v>
+      </c>
+      <c r="H47">
+        <v>1794.8320000000001</v>
+      </c>
+      <c r="I47">
+        <v>143.76</v>
+      </c>
+      <c r="J47">
+        <v>133.459</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1011.426</v>
+      </c>
+      <c r="O47">
+        <v>1334.08</v>
+      </c>
+      <c r="P47">
+        <v>431.11200000000002</v>
+      </c>
+      <c r="Q47">
+        <v>58.085000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>460.75200000000001</v>
+      </c>
+      <c r="U47">
+        <v>659.68700000000001</v>
+      </c>
+      <c r="V47">
+        <v>60.709000000000003</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>9.391</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-0.20599999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>31.103999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>36.386000000000003</v>
+      </c>
+      <c r="D48">
+        <v>326.476</v>
+      </c>
+      <c r="E48">
+        <v>123.24299999999999</v>
+      </c>
+      <c r="F48">
+        <v>276.99900000000002</v>
+      </c>
+      <c r="G48">
+        <v>1158.4459999999999</v>
+      </c>
+      <c r="H48">
+        <v>1829.2570000000001</v>
+      </c>
+      <c r="I48">
+        <v>153.95699999999999</v>
+      </c>
+      <c r="J48">
+        <v>135.006</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1002.853</v>
+      </c>
+      <c r="O48">
+        <v>1327.2439999999999</v>
+      </c>
+      <c r="P48">
+        <v>436.298</v>
+      </c>
+      <c r="Q48">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>502.01299999999998</v>
+      </c>
+      <c r="U48">
+        <v>661.65800000000002</v>
+      </c>
+      <c r="V48">
+        <v>67.478999999999999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-5.0960000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-48.947000000000003</v>
+      </c>
+      <c r="AA48">
+        <v>36.386000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>58.584000000000003</v>
+      </c>
+      <c r="D49">
+        <v>338.53300000000002</v>
+      </c>
+      <c r="E49">
+        <v>123.206</v>
+      </c>
+      <c r="F49">
+        <v>287.26299999999998</v>
+      </c>
+      <c r="G49">
+        <v>1250.6120000000001</v>
+      </c>
+      <c r="H49">
+        <v>1988.5139999999999</v>
+      </c>
+      <c r="I49">
+        <v>160.25</v>
+      </c>
+      <c r="J49">
+        <v>136.59399999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1074.6179999999999</v>
+      </c>
+      <c r="O49">
+        <v>1400.126</v>
+      </c>
+      <c r="P49">
+        <v>441.62299999999999</v>
+      </c>
+      <c r="Q49">
+        <v>-12.558999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>588.38800000000003</v>
+      </c>
+      <c r="U49">
+        <v>649.09900000000005</v>
+      </c>
+      <c r="V49">
+        <v>91.93</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>13.847</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-44.865000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>58.584000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>313.87400000000002</v>
+      </c>
+      <c r="D50">
+        <v>345.58499999999998</v>
+      </c>
+      <c r="E50">
+        <v>97.820999999999998</v>
+      </c>
+      <c r="F50">
+        <v>301.79500000000002</v>
+      </c>
+      <c r="G50">
+        <v>1391.2349999999999</v>
+      </c>
+      <c r="H50">
+        <v>2287.0030000000002</v>
+      </c>
+      <c r="I50">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1217.27</v>
+      </c>
+      <c r="O50">
+        <v>1371.8320000000001</v>
+      </c>
+      <c r="P50">
+        <v>447.01100000000002</v>
+      </c>
+      <c r="Q50">
+        <v>77.257999999999996</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>5200</v>
+      </c>
+      <c r="T50">
+        <v>915.17100000000005</v>
+      </c>
+      <c r="U50">
+        <v>726.35699999999997</v>
+      </c>
+      <c r="V50">
+        <v>95.876000000000005</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-2.3090000000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-4.8239999999999998</v>
+      </c>
+      <c r="AA50">
+        <v>313.87400000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>78.608999999999995</v>
+      </c>
+      <c r="D51">
+        <v>354.26600000000002</v>
+      </c>
+      <c r="E51">
+        <v>75.253</v>
+      </c>
+      <c r="F51">
+        <v>306.07499999999999</v>
+      </c>
+      <c r="G51">
+        <v>1461.912</v>
+      </c>
+      <c r="H51">
+        <v>2323.2629999999999</v>
+      </c>
+      <c r="I51">
+        <v>156.60599999999999</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-2.5259999999999998</v>
+      </c>
+      <c r="N51">
+        <v>1210.625</v>
+      </c>
+      <c r="O51">
+        <v>1303.5899999999999</v>
+      </c>
+      <c r="P51">
+        <v>452.57100000000003</v>
+      </c>
+      <c r="Q51">
+        <v>83.795000000000002</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1019.673</v>
+      </c>
+      <c r="U51">
+        <v>810.15200000000004</v>
+      </c>
+      <c r="V51">
+        <v>75.335999999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>15.194000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>5.5049999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>78.608999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>9.4290000000000003</v>
+      </c>
+      <c r="D52">
+        <v>362.48099999999999</v>
+      </c>
+      <c r="E52">
+        <v>92.581000000000003</v>
+      </c>
+      <c r="F52">
+        <v>319.238</v>
+      </c>
+      <c r="G52">
+        <v>1265.499</v>
+      </c>
+      <c r="H52">
+        <v>2563.0889999999999</v>
+      </c>
+      <c r="I52">
+        <v>185.809</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1361.903</v>
+      </c>
+      <c r="O52">
+        <v>1522.829</v>
+      </c>
+      <c r="P52">
+        <v>558.17899999999997</v>
+      </c>
+      <c r="Q52">
+        <v>-232.91900000000001</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1040.26</v>
+      </c>
+      <c r="U52">
+        <v>577.23299999999995</v>
+      </c>
+      <c r="V52">
+        <v>74.894999999999996</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>107.467</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-0.53500000000000003</v>
+      </c>
+      <c r="AA52">
+        <v>9.4290000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>38.5</v>
+      </c>
+      <c r="D53">
+        <v>366.64699999999999</v>
+      </c>
+      <c r="E53">
+        <v>101.896</v>
+      </c>
+      <c r="F53">
+        <v>316.911</v>
+      </c>
+      <c r="G53">
+        <v>1274.163</v>
+      </c>
+      <c r="H53">
+        <v>2557.3870000000002</v>
+      </c>
+      <c r="I53">
+        <v>193.44499999999999</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>50</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1297.69</v>
+      </c>
+      <c r="O53">
+        <v>1461.181</v>
+      </c>
+      <c r="P53">
+        <v>513.83699999999999</v>
+      </c>
+      <c r="Q53">
+        <v>43.17</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1096.2059999999999</v>
+      </c>
+      <c r="U53">
+        <v>620.40300000000002</v>
+      </c>
+      <c r="V53">
+        <v>98.21</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-45.218000000000004</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>6.75</v>
+      </c>
+      <c r="AA53">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>37.704999999999998</v>
+      </c>
+      <c r="D54">
+        <v>376.72199999999998</v>
+      </c>
+      <c r="E54">
+        <v>107.624</v>
+      </c>
+      <c r="F54">
+        <v>317.69099999999997</v>
+      </c>
+      <c r="G54">
+        <v>1221.0909999999999</v>
+      </c>
+      <c r="H54">
+        <v>2428.6010000000001</v>
+      </c>
+      <c r="I54">
+        <v>24.963000000000001</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1148.21</v>
+      </c>
+      <c r="O54">
+        <v>1272.4960000000001</v>
+      </c>
+      <c r="P54">
+        <v>324.82600000000002</v>
+      </c>
+      <c r="Q54">
+        <v>-84.143000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>5700</v>
+      </c>
+      <c r="T54">
+        <v>1156.105</v>
+      </c>
+      <c r="U54">
+        <v>536.26</v>
+      </c>
+      <c r="V54">
+        <v>119.164</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-193.73400000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-0.86099999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>37.704999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>33.07</v>
+      </c>
+      <c r="D55">
+        <v>378.55</v>
+      </c>
+      <c r="E55">
+        <v>106.322</v>
+      </c>
+      <c r="F55">
+        <v>321.45100000000002</v>
+      </c>
+      <c r="G55">
+        <v>1297.7249999999999</v>
+      </c>
+      <c r="H55">
+        <v>2524.2199999999998</v>
+      </c>
+      <c r="I55">
+        <v>184.767</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1192.694</v>
+      </c>
+      <c r="O55">
+        <v>1310.018</v>
+      </c>
+      <c r="P55">
+        <v>329.05799999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-3.4990000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1214.202</v>
+      </c>
+      <c r="U55">
+        <v>532.76099999999997</v>
+      </c>
+      <c r="V55">
+        <v>28.097999999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-0.129</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-0.51400000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>33.07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>23.263000000000002</v>
+      </c>
+      <c r="D56">
+        <v>378.78800000000001</v>
+      </c>
+      <c r="E56">
+        <v>101.92400000000001</v>
+      </c>
+      <c r="F56">
+        <v>324.375</v>
+      </c>
+      <c r="G56">
+        <v>1414.7190000000001</v>
+      </c>
+      <c r="H56">
+        <v>2785.8330000000001</v>
+      </c>
+      <c r="I56">
+        <v>214.80799999999999</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>100</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1408.047</v>
+      </c>
+      <c r="O56">
+        <v>1525.3489999999999</v>
+      </c>
+      <c r="P56">
+        <v>433.33300000000003</v>
+      </c>
+      <c r="Q56">
+        <v>24.655000000000001</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1260.4839999999999</v>
+      </c>
+      <c r="U56">
+        <v>557.41600000000005</v>
+      </c>
+      <c r="V56">
+        <v>68.864999999999995</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>100.09399999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>23.263000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>37.534999999999997</v>
+      </c>
+      <c r="D57">
+        <v>400.49599999999998</v>
+      </c>
+      <c r="E57">
+        <v>107.634</v>
+      </c>
+      <c r="F57">
+        <v>346.41699999999997</v>
+      </c>
+      <c r="G57">
+        <v>1351.61</v>
+      </c>
+      <c r="H57">
+        <v>2705.9409999999998</v>
+      </c>
+      <c r="I57">
+        <v>196.50299999999999</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1296.0440000000001</v>
+      </c>
+      <c r="O57">
+        <v>1421.2139999999999</v>
+      </c>
+      <c r="P57">
+        <v>337.71100000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-56.933</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1284.7270000000001</v>
+      </c>
+      <c r="U57">
+        <v>500.483</v>
+      </c>
+      <c r="V57">
+        <v>87.691999999999993</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-127.843</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>3.012</v>
+      </c>
+      <c r="AA57">
+        <v>37.534999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>65.03</v>
+      </c>
+      <c r="D58">
+        <v>423.09800000000001</v>
+      </c>
+      <c r="E58">
+        <v>122.492</v>
+      </c>
+      <c r="F58">
+        <v>364.983</v>
+      </c>
+      <c r="G58">
+        <v>1851.7349999999999</v>
+      </c>
+      <c r="H58">
+        <v>3209.556</v>
+      </c>
+      <c r="I58">
+        <v>12.102</v>
+      </c>
+      <c r="J58">
+        <v>348.67599999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1393.0909999999999</v>
+      </c>
+      <c r="O58">
+        <v>1875.982</v>
+      </c>
+      <c r="P58">
+        <v>691.17499999999995</v>
+      </c>
+      <c r="Q58">
+        <v>431.678</v>
+      </c>
+      <c r="R58">
+        <v>42007</v>
+      </c>
+      <c r="S58">
+        <v>6100</v>
+      </c>
+      <c r="T58">
+        <v>1333.5740000000001</v>
+      </c>
+      <c r="U58">
+        <v>932.16099999999994</v>
+      </c>
+      <c r="V58">
+        <v>132.06700000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>316.84300000000002</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="AA58">
+        <v>65.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42098</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>36.259</v>
+      </c>
+      <c r="D59">
+        <v>411.36599999999999</v>
+      </c>
+      <c r="E59">
+        <v>133.92400000000001</v>
+      </c>
+      <c r="F59">
+        <v>350.78100000000001</v>
+      </c>
+      <c r="G59">
+        <v>1733.644</v>
+      </c>
+      <c r="H59">
+        <v>3062.5650000000001</v>
+      </c>
+      <c r="I59">
+        <v>172.46600000000001</v>
+      </c>
+      <c r="J59">
+        <v>348.70499999999998</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>-53.862000000000002</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1226.4359999999999</v>
+      </c>
+      <c r="O59">
+        <v>1699.375</v>
+      </c>
+      <c r="P59">
+        <v>642.37199999999996</v>
+      </c>
+      <c r="Q59">
+        <v>-44.424999999999997</v>
+      </c>
+      <c r="R59">
+        <v>42098</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1363.19</v>
+      </c>
+      <c r="U59">
+        <v>887.73599999999999</v>
+      </c>
+      <c r="V59">
+        <v>46.688000000000002</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-73.682000000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-0.89600000000000002</v>
+      </c>
+      <c r="AA59">
+        <v>36.259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42189</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>58.16</v>
+      </c>
+      <c r="D60">
+        <v>415.88299999999998</v>
+      </c>
+      <c r="E60">
+        <v>131.32499999999999</v>
+      </c>
+      <c r="F60">
+        <v>364.12799999999999</v>
+      </c>
+      <c r="G60">
+        <v>1067.2280000000001</v>
+      </c>
+      <c r="H60">
+        <v>2380.6529999999998</v>
+      </c>
+      <c r="I60">
+        <v>199.245</v>
+      </c>
+      <c r="J60">
+        <v>348.733</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>527.36300000000006</v>
+      </c>
+      <c r="O60">
+        <v>983.43799999999999</v>
+      </c>
+      <c r="P60">
+        <v>348.733</v>
+      </c>
+      <c r="Q60">
+        <v>-239.88499999999999</v>
+      </c>
+      <c r="R60">
+        <v>42189</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1397.2149999999999</v>
+      </c>
+      <c r="U60">
+        <v>647.851</v>
+      </c>
+      <c r="V60">
+        <v>121.754</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-336.94299999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-3.141</v>
+      </c>
+      <c r="AA60">
+        <v>58.16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>77.623999999999995</v>
+      </c>
+      <c r="D61">
+        <v>433.76299999999998</v>
+      </c>
+      <c r="E61">
+        <v>133.66499999999999</v>
+      </c>
+      <c r="F61">
+        <v>368.55200000000002</v>
+      </c>
+      <c r="G61">
+        <v>1042.0840000000001</v>
+      </c>
+      <c r="H61">
+        <v>2331.14</v>
+      </c>
+      <c r="I61">
+        <v>192.50700000000001</v>
+      </c>
+      <c r="J61">
+        <v>348.76</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>509.64699999999999</v>
+      </c>
+      <c r="O61">
+        <v>946.57799999999997</v>
+      </c>
+      <c r="P61">
+        <v>348.76</v>
+      </c>
+      <c r="Q61">
+        <v>-31.76</v>
+      </c>
+      <c r="R61">
+        <v>42280</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1384.5619999999999</v>
+      </c>
+      <c r="U61">
+        <v>616.09100000000001</v>
+      </c>
+      <c r="V61">
+        <v>86.906999999999996</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-107.916</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>3.6030000000000002</v>
+      </c>
+      <c r="AA61">
+        <v>77.623999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42371</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>80.373999999999995</v>
+      </c>
+      <c r="D62">
+        <v>441.07900000000001</v>
+      </c>
+      <c r="E62">
+        <v>164.84800000000001</v>
+      </c>
+      <c r="F62">
+        <v>380.17700000000002</v>
+      </c>
+      <c r="G62">
+        <v>964.23500000000001</v>
+      </c>
+      <c r="H62">
+        <v>2345.5149999999999</v>
+      </c>
+      <c r="I62">
+        <v>25.152000000000001</v>
+      </c>
+      <c r="J62">
+        <v>343.28800000000001</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>536.30700000000002</v>
+      </c>
+      <c r="O62">
+        <v>969.4</v>
+      </c>
+      <c r="P62">
+        <v>343.28800000000001</v>
+      </c>
+      <c r="Q62">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="R62">
+        <v>42371</v>
+      </c>
+      <c r="S62">
+        <v>6700</v>
+      </c>
+      <c r="T62">
+        <v>1376.115</v>
+      </c>
+      <c r="U62">
+        <v>616.68600000000004</v>
+      </c>
+      <c r="V62">
+        <v>122.851</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-107.76900000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="AA62">
+        <v>80.373999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>50.561999999999998</v>
+      </c>
+      <c r="D63">
+        <v>447.86200000000002</v>
+      </c>
+      <c r="E63">
+        <v>147.53299999999999</v>
+      </c>
+      <c r="F63">
+        <v>385.80799999999999</v>
+      </c>
+      <c r="G63">
+        <v>1152.2439999999999</v>
+      </c>
+      <c r="H63">
+        <v>2539.0239999999999</v>
+      </c>
+      <c r="I63">
+        <v>186.57400000000001</v>
+      </c>
+      <c r="J63">
+        <v>642.86199999999997</v>
+      </c>
+      <c r="K63">
+        <v>50</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>567.9</v>
+      </c>
+      <c r="O63">
+        <v>1304.972</v>
+      </c>
+      <c r="P63">
+        <v>692.86199999999997</v>
+      </c>
+      <c r="Q63">
+        <v>193.714</v>
+      </c>
+      <c r="R63">
+        <v>42462</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1234.0519999999999</v>
+      </c>
+      <c r="U63">
+        <v>810.4</v>
+      </c>
+      <c r="V63">
+        <v>83.191000000000003</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>118.43300000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>50.561999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>49.335000000000001</v>
+      </c>
+      <c r="D64">
+        <v>453.02100000000002</v>
+      </c>
+      <c r="E64">
+        <v>156.44399999999999</v>
+      </c>
+      <c r="F64">
+        <v>391.238</v>
+      </c>
+      <c r="G64">
+        <v>962.17899999999997</v>
+      </c>
+      <c r="H64">
+        <v>2377.873</v>
+      </c>
+      <c r="I64">
+        <v>221.244</v>
+      </c>
+      <c r="J64">
+        <v>643.07299999999998</v>
+      </c>
+      <c r="K64">
+        <v>50</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>564.471</v>
+      </c>
+      <c r="O64">
+        <v>1302.48</v>
+      </c>
+      <c r="P64">
+        <v>693.07299999999998</v>
+      </c>
+      <c r="Q64">
+        <v>-140.827</v>
+      </c>
+      <c r="R64">
+        <v>42553</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1075.393</v>
+      </c>
+      <c r="U64">
+        <v>669.57299999999998</v>
+      </c>
+      <c r="V64">
+        <v>80.366</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-230.34899999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>61.283000000000001</v>
+      </c>
+      <c r="AA64">
+        <v>49.335000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>64.712000000000003</v>
+      </c>
+      <c r="D65">
+        <v>446.22</v>
+      </c>
+      <c r="E65">
+        <v>152.02500000000001</v>
+      </c>
+      <c r="F65">
+        <v>389.613</v>
+      </c>
+      <c r="G65">
+        <v>792.29</v>
+      </c>
+      <c r="H65">
+        <v>2194.087</v>
+      </c>
+      <c r="I65">
+        <v>192.15</v>
+      </c>
+      <c r="J65">
+        <v>643.27700000000004</v>
+      </c>
+      <c r="K65">
+        <v>50</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>531.32100000000003</v>
+      </c>
+      <c r="O65">
+        <v>1267.2909999999999</v>
+      </c>
+      <c r="P65">
+        <v>693.27700000000004</v>
+      </c>
+      <c r="Q65">
+        <v>-145.24</v>
+      </c>
+      <c r="R65">
+        <v>42644</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>926.79600000000005</v>
+      </c>
+      <c r="U65">
+        <v>524.33299999999997</v>
+      </c>
+      <c r="V65">
+        <v>84.46</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-244.14099999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>26.827000000000002</v>
+      </c>
+      <c r="AA65">
+        <v>64.712000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>38.476999999999997</v>
+      </c>
+      <c r="D66">
+        <v>468.98</v>
+      </c>
+      <c r="E66">
+        <v>157.17099999999999</v>
+      </c>
+      <c r="F66">
+        <v>392.93200000000002</v>
+      </c>
+      <c r="G66">
+        <v>702.03399999999999</v>
+      </c>
+      <c r="H66">
+        <v>2096.9079999999999</v>
+      </c>
+      <c r="I66">
+        <v>4.367</v>
+      </c>
+      <c r="J66">
+        <v>643.49300000000005</v>
+      </c>
+      <c r="K66">
+        <v>50</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>585.56200000000001</v>
+      </c>
+      <c r="O66">
+        <v>1355.1379999999999</v>
+      </c>
+      <c r="P66">
+        <v>693.49300000000005</v>
+      </c>
+      <c r="Q66">
+        <v>-59.100999999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>7100</v>
+      </c>
+      <c r="T66">
+        <v>741.77</v>
+      </c>
+      <c r="U66">
+        <v>465.23200000000003</v>
+      </c>
+      <c r="V66">
+        <v>196.86199999999999</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-236.64</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>5.6050000000000004</v>
+      </c>
+      <c r="AA66">
+        <v>38.476999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>68.259</v>
+      </c>
+      <c r="D67">
+        <v>476.911</v>
+      </c>
+      <c r="E67">
+        <v>180.571</v>
+      </c>
+      <c r="F67">
+        <v>415.11900000000003</v>
+      </c>
+      <c r="G67">
+        <v>800.00400000000002</v>
+      </c>
+      <c r="H67">
+        <v>2191.1979999999999</v>
+      </c>
+      <c r="I67">
+        <v>181.74299999999999</v>
+      </c>
+      <c r="J67">
+        <v>643.70899999999995</v>
+      </c>
+      <c r="K67">
+        <v>50</v>
+      </c>
+      <c r="L67">
+        <v>-50</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>575.82600000000002</v>
+      </c>
+      <c r="O67">
+        <v>1350.606</v>
+      </c>
+      <c r="P67">
+        <v>693.70899999999995</v>
+      </c>
+      <c r="Q67">
+        <v>78.896000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>840.59199999999998</v>
+      </c>
+      <c r="U67">
+        <v>544.12800000000004</v>
+      </c>
+      <c r="V67">
+        <v>92.43</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-0.54800000000000004</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0.107</v>
+      </c>
+      <c r="AA67">
+        <v>68.259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>69.126999999999995</v>
+      </c>
+      <c r="D68">
+        <v>479.00099999999998</v>
+      </c>
+      <c r="E68">
+        <v>153.154</v>
+      </c>
+      <c r="F68">
+        <v>418.16899999999998</v>
+      </c>
+      <c r="G68">
+        <v>883.45</v>
+      </c>
+      <c r="H68">
+        <v>2267.6990000000001</v>
+      </c>
+      <c r="I68">
+        <v>216.00700000000001</v>
+      </c>
+      <c r="J68">
+        <v>643.92700000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>544.72500000000002</v>
+      </c>
+      <c r="O68">
+        <v>1315.9059999999999</v>
+      </c>
+      <c r="P68">
+        <v>643.92700000000002</v>
+      </c>
+      <c r="Q68">
+        <v>111.87</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>951.79300000000001</v>
+      </c>
+      <c r="U68">
+        <v>655.99800000000005</v>
+      </c>
+      <c r="V68">
+        <v>162.13999999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-46.097000000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AA68">
+        <v>69.126999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>81.156999999999996</v>
+      </c>
+      <c r="D69">
+        <v>485.39800000000002</v>
+      </c>
+      <c r="E69">
+        <v>170.31200000000001</v>
+      </c>
+      <c r="F69">
+        <v>430.916</v>
+      </c>
+      <c r="G69">
+        <v>931.10500000000002</v>
+      </c>
+      <c r="H69">
+        <v>2305.2269999999999</v>
+      </c>
+      <c r="I69">
+        <v>196.215</v>
+      </c>
+      <c r="J69">
+        <v>644.14599999999996</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>520.13400000000001</v>
+      </c>
+      <c r="O69">
+        <v>1294.4870000000001</v>
+      </c>
+      <c r="P69">
+        <v>644.14599999999996</v>
+      </c>
+      <c r="Q69">
+        <v>22.286000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1010.74</v>
+      </c>
+      <c r="U69">
+        <v>678.28399999999999</v>
+      </c>
+      <c r="V69">
+        <v>89.313999999999993</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-62.872</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>9.34</v>
+      </c>
+      <c r="AA69">
+        <v>81.156999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-14.442</v>
+      </c>
+      <c r="D70">
+        <v>501.72199999999998</v>
+      </c>
+      <c r="E70">
+        <v>194.39</v>
+      </c>
+      <c r="F70">
+        <v>441.43799999999999</v>
+      </c>
+      <c r="G70">
+        <v>979.98800000000006</v>
+      </c>
+      <c r="H70">
+        <v>2418.7139999999999</v>
+      </c>
+      <c r="I70">
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="J70">
+        <v>644.36900000000003</v>
+      </c>
+      <c r="K70">
+        <v>85</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>642.39800000000002</v>
+      </c>
+      <c r="O70">
+        <v>1429.5119999999999</v>
+      </c>
+      <c r="P70">
+        <v>729.36900000000003</v>
+      </c>
+      <c r="Q70">
+        <v>9.8030000000000008</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>7200</v>
+      </c>
+      <c r="T70">
+        <v>989.202</v>
+      </c>
+      <c r="U70">
+        <v>688.08699999999999</v>
+      </c>
+      <c r="V70">
+        <v>126.85599999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="AA70">
+        <v>-14.442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>72.885000000000005</v>
+      </c>
+      <c r="D71">
+        <v>517.31299999999999</v>
+      </c>
+      <c r="E71">
+        <v>231.899</v>
+      </c>
+      <c r="F71">
+        <v>454.10399999999998</v>
+      </c>
+      <c r="G71">
+        <v>1069.943</v>
+      </c>
+      <c r="H71">
+        <v>2486.6729999999998</v>
+      </c>
+      <c r="I71">
+        <v>206.02</v>
+      </c>
+      <c r="J71">
+        <v>344.76600000000002</v>
+      </c>
+      <c r="K71">
+        <v>45</v>
+      </c>
+      <c r="L71">
+        <v>-43.866999999999997</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>866.24900000000002</v>
+      </c>
+      <c r="O71">
+        <v>1344.375</v>
+      </c>
+      <c r="P71">
+        <v>689.59199999999998</v>
+      </c>
+      <c r="Q71">
+        <v>58.881</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1142.298</v>
+      </c>
+      <c r="U71">
+        <v>746.96799999999996</v>
+      </c>
+      <c r="V71">
+        <v>157.64699999999999</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-97.055999999999997</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>72.885000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>75.149000000000001</v>
+      </c>
+      <c r="D72">
+        <v>518.39099999999996</v>
+      </c>
+      <c r="E72">
+        <v>227.37700000000001</v>
+      </c>
+      <c r="F72">
+        <v>459.43099999999998</v>
+      </c>
+      <c r="G72">
+        <v>1129.0540000000001</v>
+      </c>
+      <c r="H72">
+        <v>2527.8649999999998</v>
+      </c>
+      <c r="I72">
+        <v>241.375</v>
+      </c>
+      <c r="J72">
+        <v>344.93900000000002</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>870.11500000000001</v>
+      </c>
+      <c r="O72">
+        <v>1339.877</v>
+      </c>
+      <c r="P72">
+        <v>644.81799999999998</v>
+      </c>
+      <c r="Q72">
+        <v>72.572000000000003</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1187.9880000000001</v>
+      </c>
+      <c r="U72">
+        <v>819.54</v>
+      </c>
+      <c r="V72">
+        <v>205.26599999999999</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-96.305000000000007</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>75.149000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>99.317999999999998</v>
+      </c>
+      <c r="D73">
+        <v>532.46799999999996</v>
+      </c>
+      <c r="E73">
+        <v>255.98699999999999</v>
+      </c>
+      <c r="F73">
+        <v>472.01400000000001</v>
+      </c>
+      <c r="G73">
+        <v>888.38099999999997</v>
+      </c>
+      <c r="H73">
+        <v>2273.2069999999999</v>
+      </c>
+      <c r="I73">
+        <v>211.458</v>
+      </c>
+      <c r="J73">
+        <v>345.113</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>541.32100000000003</v>
+      </c>
+      <c r="O73">
+        <v>1015.79</v>
+      </c>
+      <c r="P73">
+        <v>345.113</v>
+      </c>
+      <c r="Q73">
+        <v>-274.95499999999998</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1257.4169999999999</v>
+      </c>
+      <c r="U73">
+        <v>544.58500000000004</v>
+      </c>
+      <c r="V73">
+        <v>109.95399999999999</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-366.971</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>99.317999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>98.424999999999997</v>
+      </c>
+      <c r="D74">
+        <v>569.85</v>
+      </c>
+      <c r="E74">
+        <v>307.137</v>
+      </c>
+      <c r="F74">
+        <v>493.726</v>
+      </c>
+      <c r="G74">
+        <v>951.09199999999998</v>
+      </c>
+      <c r="H74">
+        <v>2468.654</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>345.291</v>
+      </c>
+      <c r="K74">
+        <v>100</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>708.98199999999997</v>
+      </c>
+      <c r="O74">
+        <v>1180.2529999999999</v>
+      </c>
+      <c r="P74">
+        <v>445.291</v>
+      </c>
+      <c r="Q74">
+        <v>-11.287000000000001</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>7500</v>
+      </c>
+      <c r="T74">
+        <v>1288.4010000000001</v>
+      </c>
+      <c r="U74">
+        <v>533.298</v>
+      </c>
+      <c r="V74">
+        <v>131.88399999999999</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-7.6070000000000002</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-112.342</v>
+      </c>
+      <c r="AA74">
+        <v>98.424999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>120.55500000000001</v>
+      </c>
+      <c r="D75">
+        <v>576.74199999999996</v>
+      </c>
+      <c r="E75">
+        <v>276.97800000000001</v>
+      </c>
+      <c r="F75">
+        <v>506.15699999999998</v>
+      </c>
+      <c r="G75">
+        <v>917.947</v>
+      </c>
+      <c r="H75">
+        <v>2546.3110000000001</v>
+      </c>
+      <c r="I75">
+        <v>209.017</v>
+      </c>
+      <c r="J75">
+        <v>345.47</v>
+      </c>
+      <c r="K75">
+        <v>50</v>
+      </c>
+      <c r="L75">
+        <v>-100</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>631.43899999999996</v>
+      </c>
+      <c r="O75">
+        <v>1180.4739999999999</v>
+      </c>
+      <c r="P75">
+        <v>500.59</v>
+      </c>
+      <c r="Q75">
+        <v>5.6</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1365.837</v>
+      </c>
+      <c r="U75">
+        <v>538.89800000000002</v>
+      </c>
+      <c r="V75">
+        <v>185.41399999999999</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-134.078</v>
+      </c>
+      <c r="Y75">
+        <v>81.337000000000003</v>
+      </c>
+      <c r="Z75">
+        <v>-30.712</v>
+      </c>
+      <c r="AA75">
+        <v>120.55500000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>107.235</v>
+      </c>
+      <c r="D76">
+        <v>580.41899999999998</v>
+      </c>
+      <c r="E76">
+        <v>248.11</v>
+      </c>
+      <c r="F76">
+        <v>518.95000000000005</v>
+      </c>
+      <c r="G76">
+        <v>979.24099999999999</v>
+      </c>
+      <c r="H76">
+        <v>2612.3249999999998</v>
+      </c>
+      <c r="I76">
+        <v>218.251</v>
+      </c>
+      <c r="J76">
+        <v>345.65199999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>610.18299999999999</v>
+      </c>
+      <c r="O76">
+        <v>1181.78</v>
+      </c>
+      <c r="P76">
+        <v>466.553</v>
+      </c>
+      <c r="Q76">
+        <v>94.516999999999996</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1430.5450000000001</v>
+      </c>
+      <c r="U76">
+        <v>633.41499999999996</v>
+      </c>
+      <c r="V76">
+        <v>246.36</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-134.88499999999999</v>
+      </c>
+      <c r="Y76">
+        <v>93.451999999999998</v>
+      </c>
+      <c r="Z76">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="AA76">
+        <v>107.235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>101.514</v>
+      </c>
+      <c r="D77">
+        <v>579.60299999999995</v>
+      </c>
+      <c r="E77">
+        <v>283.42700000000002</v>
+      </c>
+      <c r="F77">
+        <v>518.62800000000004</v>
+      </c>
+      <c r="G77">
+        <v>1049.9490000000001</v>
+      </c>
+      <c r="H77">
+        <v>2662.1979999999999</v>
+      </c>
+      <c r="I77">
+        <v>246.65199999999999</v>
+      </c>
+      <c r="J77">
+        <v>345.83300000000003</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>618.98199999999997</v>
+      </c>
+      <c r="O77">
+        <v>1181.9359999999999</v>
+      </c>
+      <c r="P77">
+        <v>464.05599999999998</v>
+      </c>
+      <c r="Q77">
+        <v>21.800999999999998</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1480.2619999999999</v>
+      </c>
+      <c r="U77">
+        <v>655.21600000000001</v>
+      </c>
+      <c r="V77">
+        <v>138.53</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-88.057000000000002</v>
+      </c>
+      <c r="Y77">
+        <v>90.506</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>101.514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>659.67499999999995</v>
+      </c>
+      <c r="D78">
+        <v>599.55499999999995</v>
+      </c>
+      <c r="E78">
+        <v>314.755</v>
+      </c>
+      <c r="F78">
+        <v>526.22699999999998</v>
+      </c>
+      <c r="G78">
+        <v>1169.3430000000001</v>
+      </c>
+      <c r="H78">
+        <v>3357.2249999999999</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>346.01900000000001</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>672.39099999999996</v>
+      </c>
+      <c r="O78">
+        <v>1254.3309999999999</v>
+      </c>
+      <c r="P78">
+        <v>456.35899999999998</v>
+      </c>
+      <c r="Q78">
+        <v>49.994</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>8100</v>
+      </c>
+      <c r="T78">
+        <v>2102.8939999999998</v>
+      </c>
+      <c r="U78">
+        <v>705.21</v>
+      </c>
+      <c r="V78">
+        <v>159.29599999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-86.866</v>
+      </c>
+      <c r="Y78">
+        <v>84.781999999999996</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>659.67499999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>123.988</v>
+      </c>
+      <c r="D79">
+        <v>617.95699999999999</v>
+      </c>
+      <c r="E79">
+        <v>300.07799999999997</v>
+      </c>
+      <c r="F79">
+        <v>543.49400000000003</v>
+      </c>
+      <c r="G79">
+        <v>1399.5070000000001</v>
+      </c>
+      <c r="H79">
+        <v>3767.973</v>
+      </c>
+      <c r="I79">
+        <v>233.334</v>
+      </c>
+      <c r="J79">
+        <v>346.20499999999998</v>
+      </c>
+      <c r="K79">
+        <v>350</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1012.429</v>
+      </c>
+      <c r="O79">
+        <v>1609.979</v>
+      </c>
+      <c r="P79">
+        <v>696.20500000000004</v>
+      </c>
+      <c r="Q79">
+        <v>241.07499999999999</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2157.9940000000001</v>
+      </c>
+      <c r="U79">
+        <v>946.28499999999997</v>
+      </c>
+      <c r="V79">
+        <v>217.71899999999999</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>245.762</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>123.988</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>131.28800000000001</v>
+      </c>
+      <c r="D80">
+        <v>638.41800000000001</v>
+      </c>
+      <c r="E80">
+        <v>322.99799999999999</v>
+      </c>
+      <c r="F80">
+        <v>563.20299999999997</v>
+      </c>
+      <c r="G80">
+        <v>1639.7829999999999</v>
+      </c>
+      <c r="H80">
+        <v>3999.4969999999998</v>
+      </c>
+      <c r="I80">
+        <v>305.78899999999999</v>
+      </c>
+      <c r="J80">
+        <v>346.39400000000001</v>
+      </c>
+      <c r="K80">
+        <v>350</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1151.8869999999999</v>
+      </c>
+      <c r="O80">
+        <v>1742.866</v>
+      </c>
+      <c r="P80">
+        <v>696.39400000000001</v>
+      </c>
+      <c r="Q80">
+        <v>242.90100000000001</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2256.6309999999999</v>
+      </c>
+      <c r="U80">
+        <v>1189.1859999999999</v>
+      </c>
+      <c r="V80">
+        <v>345.12400000000002</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-80.787999999999997</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>131.28800000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>161.63</v>
+      </c>
+      <c r="D81">
+        <v>666.60699999999997</v>
+      </c>
+      <c r="E81">
+        <v>309.08999999999997</v>
+      </c>
+      <c r="F81">
+        <v>584.32299999999998</v>
+      </c>
+      <c r="G81">
+        <v>1736.482</v>
+      </c>
+      <c r="H81">
+        <v>4140.152</v>
+      </c>
+      <c r="I81">
+        <v>289.83499999999998</v>
+      </c>
+      <c r="J81">
+        <v>346.584</v>
+      </c>
+      <c r="K81">
+        <v>350</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1117.8889999999999</v>
+      </c>
+      <c r="O81">
+        <v>1744.434</v>
+      </c>
+      <c r="P81">
+        <v>696.58399999999995</v>
+      </c>
+      <c r="Q81">
+        <v>117.378</v>
+      </c>
+      <c r="R81">
+        <v>44100</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2395.7179999999998</v>
+      </c>
+      <c r="U81">
+        <v>1306.5640000000001</v>
+      </c>
+      <c r="V81">
+        <v>206.55699999999999</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-79.084999999999994</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>161.63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>173.738</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>759.90899999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>348.19600000000003</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>686.37300000000005</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1478.587</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>3950.7849999999999</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>346.79300000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>796.80799999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1457.7670000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>494.62900000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-378.13200000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44198</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>8800</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2493.018</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>928.43200000000002</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>135.52199999999999</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-501.178</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>113.916</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>0.217</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>173.738</v>
       </c>
     </row>
